--- a/data/esnli_de_gpt4_1_mini.xlsx
+++ b/data/esnli_de_gpt4_1_mini.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M501"/>
+  <dimension ref="A1:L501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>Sentence2_de</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Explanation_1_de</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -539,11 +534,6 @@
           <t>Eine Frau in einer rosa Schürze sitzt in einer Küche.</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Die Schürze ist entweder blau oder pink. Die Frau kann nicht kochen, wenn sie sitzt.</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -584,11 +574,6 @@
           <t>Der junge Mann ist in der Schule und macht eine Mathematikprüfung.</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Der junge Mann ist entweder in der Schule oder im Sand.</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -629,11 +614,6 @@
           <t>Drei junge Mädchen sind am Strand.</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Jungen und Mädchen sind unterschiedliche Personen.</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -674,11 +654,6 @@
           <t>Eine blaue Sicherheitsbox, die an der Seite des Hauses befestigt ist.</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Eine Stange ist nicht dasselbe wie ein Haus.</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -719,11 +694,6 @@
           <t>Ein Mann gießt Pflanzen.</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Ein Mann gab den Pflanzen Wasser.</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -764,11 +734,6 @@
           <t>Die Türsteher begleiteten einen streitlustigen Gast aus der Bar.</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Ein Nachtclub kann eine Bar enthalten, aber eine Bar ist nicht zwangsläufig ein Nachtclub.</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -809,11 +774,6 @@
           <t>Eine junge Frau lächelt, während sie auf einer Indoor-Schießanlage schießt.</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Eine junge Frau schießt mit einer Pistole auf einem Schießstand.</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -854,11 +814,6 @@
           <t>Der Mann springt durch die Luft, während er eine Kampfkunstuniform trägt.</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>springen impliziert Sprünge</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -899,11 +854,6 @@
           <t>Ein Hund schläft.</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Mädchen und Hund sind unterschiedlich.</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -944,11 +894,6 @@
           <t>Eine dunkelhaarige Frau steht hinter einer Gruppe und trägt ein kleines Hemd.</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Eine brünette Frau impliziert, dass sie dunkelhaarig ist, und "Hemd zu klein für sie" bedeutet, dass sie ein kleines Hemd trägt.</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -989,11 +934,6 @@
           <t>Eine alte Frau kauft einen neuen Pullover.</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Nur weil eine alte Frau mit einem weißen Pullover und einem Schal in einem Einkaufszentrum in London steht, bedeutet das nicht, dass sie einen neuen Pullover kauft.</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1034,11 +974,6 @@
           <t>Roadrage findet auf einer Autobahn statt.</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Ein Mädchen auf einem Einrad würde auf einer Autobahn keinen Straßenrausch bekommen.</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1079,11 +1014,6 @@
           <t>Der Mann in einem braunen Hemd jongliert vor einer Menschenmenge.</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Der Mann kann nicht gleichzeitig jonglieren und ein Musikinstrument spielen.</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1124,11 +1054,6 @@
           <t>Das Kleinkind trägt ein blaues Poloshirt.</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Er trägt ein Poloshirt.</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1169,11 +1094,6 @@
           <t>Die Frau ist im Auto mit ihrem Telefon beschäftigt.</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Eine Frau kann nicht gleichzeitig schlafen und an ihrem Telefon sein.</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1214,11 +1134,6 @@
           <t>Zwei Frauen gehen spazieren.</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Eine Person kann an einer anderen Person vorbeigehen, ohne dass beide laufen. Die Person, an der vorbeigegangen wird, könnte stillstehen.</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1259,11 +1174,6 @@
           <t>Die Mädchen sind in verschiedenen Räumen auf dem Empire State Building.</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Es gibt kein Schwimmbecken auf der Spitze des Empire State Buildings, und die Mädchen würden nicht Händchen haltend gesehen werden, wenn sie sich in verschiedenen Räumen befänden.</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1304,11 +1214,6 @@
           <t>Zwei Soldaten sprechen mit einem kleinen Jungen über Armeefahrzeuge.</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Die zwei Männer und der kleine Junge können aus der Gegend stammen, ohne miteinander zu sprechen. Wenn sie miteinander sprechen würden, müsste es nicht um Armeelastwagen gehen.</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1349,11 +1254,6 @@
           <t>Ein Straßenverkäufer sitzt.</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Ein Straßenverkäufer, der sitzt, ist dasselbe wie ein Straßenverkäufer sitzt.</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1394,11 +1294,6 @@
           <t>Ein Mann mit leuchtend goldener Farbe steht in der Straße nahe dem Gebäude.</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Ein Mann, der goldfarben bemalt ist, kann nicht als klug betrachtet werden, und nicht alle Straßen haben Gebäude, und nicht alle Gebäude haben Straßen.</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1439,11 +1334,6 @@
           <t>Ein Mann in Blau watet durch Wasser vor einer wunderschönen Berglandschaft.</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Ein Mann in blauer Kleidung watet, trägt Shorts und sieht im Hintergrund grüne Berge, was auch als schöne Berglandschaft bekannt ist.</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1484,11 +1374,6 @@
           <t>Eine große Menschenmenge besichtigt ein Museum.</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Gehen impliziert nicht, ein Museum zu besichtigen.</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1529,11 +1414,6 @@
           <t>Zwei Personen befinden sich auf einer langen Zugfahrt.</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Zugfahrten können lang, kurz oder irgendwo dazwischen sein.</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1574,11 +1454,6 @@
           <t>Die Frau ist auf einer Party.</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Menschen können an anderen Orten als auf einer Party Kuchen essen.</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1619,11 +1494,6 @@
           <t>Der Mann ließ seine Tasche auf die Straße fallen.</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Entweder ist es eine Person, die mit einer Tasche in der Stadt läuft, oder ein Mann hat seine Tasche auf der Straße fallen lassen.</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1664,11 +1534,6 @@
           <t>14 Männer, die für ein Foto posieren.</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Nur weil die Männer auf einer Treppe stehen, bedeutet das nicht, dass sie für ein Bild posieren.</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1709,11 +1574,6 @@
           <t>Es gibt Kinder an einem Strand.</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Die Kinder sollten entweder im Wald oder an einem Strand sein.</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1754,11 +1614,6 @@
           <t>Junge Menschen spielen im frischen Schnee.</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Der Schnee ist nicht unbedingt frisch.</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1799,11 +1654,6 @@
           <t>Die Personen hinter der Absperrung beobachten einen Mann auf einem Fahrrad.</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Wenn sie von hinten schauen, deutet das darauf hin, dass sie zuschauen.</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1844,11 +1694,6 @@
           <t>Eine Band probt für den Wettbewerb „Battle of the Band“.</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Wir können nicht daraus schließen, dass sie für den Battle-of-the-Band-Wettbewerb proben; es könnte für alles Mögliche sein.</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1889,11 +1734,6 @@
           <t>Eine Frau führt Laborversuche mit einem Telefon durch.</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Ein Laborant kann nicht gleichzeitig ein Telefongespräch führen und Laborexperimente mit einem Telefon durchführen.</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1934,11 +1774,6 @@
           <t>Ein Mann repariert sein Dach nach einem Sturm.</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Dachschäden können durch mehr als nur einen Sturm verursacht werden.</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1979,11 +1814,6 @@
           <t>Drei Frauen lehnen an einem Zaun und schauen sich ein Konzert an.</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Nur weil die Frauen sich an einen Zaun lehnen, bedeutet das nicht, dass sie ein Konzert anschauen.</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2024,11 +1854,6 @@
           <t>Ein Mann auf einer Kawasaki führt einen Trick hoch in der Luft aus.</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Mann auf einem Motorrad, der einen Trick hoch in der Luft ausführt, deutet nicht darauf hin, dass der Mann auf einer Kawasaki fährt.</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2069,11 +1894,6 @@
           <t>Die Hunde sind im Haus.</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Hunde spielen entweder im Garten oder befinden sich im Haus.</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2114,11 +1934,6 @@
           <t>Es gibt eine Person, die ein Instrument spielt.</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Ein kahler Mann ist eine Person.</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2159,11 +1974,6 @@
           <t>Ein Mann mit gelber Hose schnitzt eine Eule.</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Nicht alle Schutzlatzhosen sind gelb.</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2204,11 +2014,6 @@
           <t>Ein Koch, der zeigt, wie man kocht</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Nicht jeder Mann ist Koch.</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2249,11 +2054,6 @@
           <t>Eine Rockband spielt auf einer Bühne.</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Der eine handelt von einem Mann, der ein Publikum anspricht, während der andere von einer Band handelt, die auf einer Bühne spielt.</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2294,11 +2094,6 @@
           <t>Ein junger Mann sitzt allein in seiner Wohnung.</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Der Mann wäre nicht auf einer Innensbühne, während er sich in seiner Wohnung befindet.</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2339,11 +2134,6 @@
           <t>Der Hula-Hoop-Reifen ist pink.</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Nicht alle Hula-Hoops sind rosa.</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2384,11 +2174,6 @@
           <t>Männer, die sehr wenig Kleidung tragen, joggen gemeinsam mit einer blondhaarigen Person, die ebenfalls sehr wenig Kleidung trägt, im Hof herum.</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Obwohl sie mit einem Blondinen zusammen sind, bedeutet das nicht, dass sie im Hof sind.</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2429,11 +2214,6 @@
           <t>es wurde über die Straße gekickt</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>es könnte sich um jeden Gegenstand außer einem Ball handeln.</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2474,11 +2254,6 @@
           <t>eine Person, die tanzt</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Einen Tanz aufzuführen impliziert Tanzen.</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2519,11 +2294,6 @@
           <t>Jemand macht einen Spaziergang draußen.</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Eine Person mit einem roten Hut ist jemand, und Gebäude befinden sich draußen.</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2564,11 +2334,6 @@
           <t>Der Junge trägt Socken.</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Man kann nicht davon ausgehen, dass der kleine Junge Socken trägt.</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2609,11 +2374,6 @@
           <t>Die Regenschirme sind schwarz.</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Bunte Regenschirme sind anders als schwarze Regenschirme.</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2654,11 +2414,6 @@
           <t>Ein Skateboarder shreddet den Straßenkurs.</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Ein Weg ist keine Straße.</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2699,11 +2454,6 @@
           <t>Drei Jungs schauen in ein wissenschaftliches Instrument.</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Die drei Jungen arbeiten an einem wissenschaftlichen Projekt, während einer in Rot durch das wissenschaftliche Gerät schaut.</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2744,11 +2494,6 @@
           <t>Ein Skateboard fahrender Junge führt Kunststücke aus.</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Ein Junge dreht sein Skateboard beim Skateboardfahren um, was impliziert, dass er Tricksprünge macht.</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2789,11 +2534,6 @@
           <t>Fünf Wanderer gehen den Hügel hinunter.</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Wenn fünf Wanderer einen Hang hinuntergehen, dann gehen fünf Wanderer einen Hang hinunter.</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2834,11 +2574,6 @@
           <t>Die zwei Frauen schlafen drinnen.</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Die Frauen sitzen entweder auf dem Betonsims oder sie schlafen drinnen, beides gleichzeitig ist nicht möglich.</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2879,11 +2614,6 @@
           <t>Ein Mann spielt Musik.</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Akustikgitarre zu spielen ist eine Art von Musik.</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2924,11 +2654,6 @@
           <t>Ein Mann in Hemd hält eine Frau.</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Der zweite Satz beschreibt nicht, wie der Mann die Frau hält, noch die angegebenen Details über sie.</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2969,11 +2694,6 @@
           <t>Eine Frau pustet eine Blase.</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Frau im blauen Hemd ist eine Art von Frau.</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3014,11 +2734,6 @@
           <t>Der Mann ist sein Besitzer.</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Nur weil ein Hund einen Mann ansieht, bedeutet das nicht zwangsläufig, dass der Mann sein Besitzer ist.</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3059,11 +2774,6 @@
           <t>Ein Kind sitzt neben einem Bach.</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Ein Kind, das Steine in einen Bach wirft, muss nicht unbedingt daneben sitzen.</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3104,11 +2814,6 @@
           <t>Ein Junge rennt auf eine erwartungsvolle Frau zu.</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Ein kleiner Junge, der mit ausgestreckten Armen auf eine Frau zuläuft, bedeutet einfach, dass ein Junge auf eine sehnsüchtig wartende Frau zuläuft.</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3149,11 +2854,6 @@
           <t>Eine Katze knabbert an einer Maus, die ihr Besitzer ihr gegeben hat.</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Hund und Katze sind verschieden.</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3194,11 +2894,6 @@
           <t>Ein Teenager strickt einen Schal.</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>Eine alte Frau kann kein Teenager sein.</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3239,11 +2934,6 @@
           <t>Läufer völlig nackt, die einen Marathon laufen</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>Läufer ohne oder ganz nackt können laufen</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3284,11 +2974,6 @@
           <t>Das Tier befindet sich auf einem Kurs.</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>Hund ist ein Tier.</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3329,11 +3014,6 @@
           <t>Gruppe von Männern in blauen Hemden und schwarzen Hosen, die ein rotes Auto bei einer Autowäsche abtrocknen.</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>Wir wissen nicht, dass sie eine schwarze Hose tragen.</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3374,11 +3054,6 @@
           <t>Drei Männer betrinken sich.</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>Nur weil drei Männer zusammen an einem Tisch sitzen, Bier trinken und Fotos machen, bedeutet das nicht, dass sie betrunken werden.</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3419,11 +3094,6 @@
           <t>Drei Personen stehen auf einem Hügel.</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>Menschen stehen auf einem Hügel, der verschneit und grasbewachsen ist.</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3464,11 +3134,6 @@
           <t>Eine Frau hörte auf zu rennen, um ihre Socke zu richten.</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Eine Frau, die ihre Socke in einem Park neu ausrichtet, bedeutet nicht, dass sie läuft.</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3509,11 +3174,6 @@
           <t>Die Menschen tanzen auf einer Party.</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Tanzen findet nicht nur auf Partys statt – es kann auch an einem anderen Ort geschehen.</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3554,11 +3214,6 @@
           <t>Ein Tier, das seine Zeit im Freien genießt.</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Ein Hund ist ein Tier.</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3599,11 +3254,6 @@
           <t>Ein Kind weint und wird von einem Mann gehalten.</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>Ein weinendes Kind ist eine Umschreibung für ein Kind, das weint. Wenn jemand ein Kind hält, wird das Kind gehalten.</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3644,11 +3294,6 @@
           <t>Drei Personen machen Witze über das Meer.</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>Menschen, die lachen, erzählen vielleicht keine Witze. Vielleicht ist in der Nähe etwas Amüsantes passiert. Selbst wenn sie Witze erzählen, müssen diese, nur weil sie sich auf einem Boot befinden, nicht über das Meer handeln.</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3689,11 +3334,6 @@
           <t>Der Mann schläft in seinem Bett.</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Ein Liegestuhl ist kein Bett.</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3734,11 +3374,6 @@
           <t>Eine Person sitzt auf einem Hügel, um ein Picknick zu machen.</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>Eine Person, die draußen auf einem Hügel sitzt, ist nicht unbedingt eine Person, die auf einem Hügel sitzt, um ein Picknick zu machen.</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3779,11 +3414,6 @@
           <t>Die Frau ist zu Hause.</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>Die Frau kann entweder einkaufen sein oder zu Hause.</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3824,11 +3454,6 @@
           <t>Ein Mann sucht einige Salatblätter aus.</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>Ein Mann, der Salat auswählt, unterscheidet sich von einer Frau, die Salat ordnet.</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3869,11 +3494,6 @@
           <t>Der Pitcher hat gerade einen Strike geworfen.</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>Es kann nicht angenommen werden, dass der Werfer einen Strike geworfen hat.</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3914,11 +3534,6 @@
           <t>Eine Frau steht auf.</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>Eine Frau steht aufrecht da, mit einem Kuchen auf dem Kopf.</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3959,11 +3574,6 @@
           <t>Der Junge und das Mädchen sind draußen.</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>Ein Strand befindet sich immer draußen.</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4004,11 +3614,6 @@
           <t>Der kleine Junge hatte Spaß daran, im Pool zu planschen.</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>Planschen in einem Pool bedeutet nicht, dass er Spaß hat.</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4049,11 +3654,6 @@
           <t>Die Person schläft ohne ihre Ohrringe.</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>Die Person kann entweder Ohrringe tragen oder keine tragen.</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4094,11 +3694,6 @@
           <t>Ein Mann wartet an der Endhaltestelle auf einen Bus.</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>Warten impliziert, still zu sein, nicht zu gehen. Am Grand Central Terminal gibt es keine Busse. Terminal ist anders als Bahnhof.</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4139,11 +3734,6 @@
           <t>ein Mann schwingt sich</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>Ein Mann schaukelt ist dasselbe wie ein Mann schaukelt</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4184,11 +3774,6 @@
           <t>Der Mann und die Frau sind ein Paar.</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>Dass sie ihren Kopf auflegt, bedeutet nicht unbedingt, dass sie eine Beziehung haben.</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4229,11 +3814,6 @@
           <t>Gärtner kümmern sich um ein Blumenbeet.</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>Ein Blumenbeet ist nicht dasselbe wie Haufen von Trümmern.</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4274,11 +3854,6 @@
           <t>Eine Frau reibt Käse.</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>Beide Sätze beziehen sich auf dieselbe Frau, die Käse reibt.</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4319,11 +3894,6 @@
           <t>Die roten Schuhe des Jungen sind das einzige rote Kleidungsstück, das er trägt.</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>Der Junge kann nicht nur ein rotes Kleidungsstück tragen, wenn er ein rotes Hemd und rote Schuhe trägt.</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4364,11 +3934,6 @@
           <t>Kicker tritt Ball</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>Ein Kicker schießt den Football nach vorne und tritt definitiv den Ball.</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4409,11 +3974,6 @@
           <t>Ein Mann mit einer Konföderiertenflagge hat keine Tätowierungen.</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>Von einer Person kann nicht gleichzeitig gesagt werden, dass sie Tätowierungen hat und keine Tätowierungen hat.</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4454,11 +4014,6 @@
           <t>Die Frauen kochen drinnen Abendessen.</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>Schnee fällt draußen, während das Abendessen drinnen stattfindet.</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4499,11 +4054,6 @@
           <t>Die Kinder spielen auf den Schaukeln auf dem Spielplatz.</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>Nicht alle Kinder, die auf einem Spielplatz spielen, spielen auf den Schaukeln.</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4544,11 +4094,6 @@
           <t>Das Paar spielt eine Jazzmelodie.</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>Ein Mann mit einem Blechblasinstrument und eine weibliche Pianistin sind nicht darauf beschränkt, nur einen Jazz-Song spielen zu können.</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4589,11 +4134,6 @@
           <t>Ihr Blick schweift in die Ferne.</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>Wenn eine Frau weit vorausblickt, schweift ihr Blick in die Ferne.</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4634,11 +4174,6 @@
           <t>Drei Personen sind im Wald.</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>Wenn drei Personen albern sind, können sie im Wald sein.</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4679,11 +4214,6 @@
           <t>Eine Person steht vor einem Möbelstück.</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>Dass eine Person vor einem Möbelstück steht, ist eine Kurzversion von Ein junger Mann mit blauem Hemd steht vor einem floral gemusterten Sofa.</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4724,11 +4254,6 @@
           <t>Zwei Mädchen und drei Männer laufen zusammen.</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>Frauen und Männer sind unterschiedlich.</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4769,11 +4294,6 @@
           <t>Ein Mann beobachtet einen Bus.</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>Ein Bus und ein Zug sind unterschiedliche Verkehrsmittel.</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4814,11 +4334,6 @@
           <t>Das Mädchen spielt auf einem Trampolin.</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>Das Werfen von Wasser auf einem Trampolin bezieht sich auf das Spielen auf einem Trampolin.</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4859,11 +4374,6 @@
           <t>Ein Baseballspieler beim Schwung.</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>Der Spieler schwingt.</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4904,11 +4414,6 @@
           <t>Zwei Männer sind Kollegen.</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>Männer sind Kollegen, daher werden sie zusammenarbeiten.</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4949,11 +4454,6 @@
           <t>Die Jungen spielen Basketball.</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>Fußball und Basketball sind zwei verschiedene Sportarten.</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4994,11 +4494,6 @@
           <t>Zwei Frauen ruhen sich in einer Bibliothek aus.</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>Eine Frau und eine Tochter bilden zwei weibliche Personen. Am Tisch zu sitzen bedeutet, sich auszuruhen.</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5039,11 +4534,6 @@
           <t>Einige Kinder spielen einen Sport.</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>Jugendliche sind Kinder, und Basketball ist ein Sport.</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5084,11 +4574,6 @@
           <t>Ein Junge bekommt einen Haarschnitt, weil er Kaugummi im Haar hat.</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>Man kann sich aus anderen Gründen die Haare schneiden lassen als nur, weil Kaugummi im Haar klebt.</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5129,11 +4614,6 @@
           <t>Ein Mann steht vor einer Lebensmittelvitrine.</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>"Standing" ist eine Umschreibung von "stands".</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -5174,11 +4654,6 @@
           <t>Das Hemd des Mannes ist orange.</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>Es gibt einen Mann in einem orangefarbenen Hemd.</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -5219,11 +4694,6 @@
           <t>Menschen im Kino</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>Konventionen sind anders als bei Filmen</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -5264,11 +4734,6 @@
           <t>das Kind ist schwarz</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>Die beiden Frauen haben möglicherweise kein Kind.</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5309,11 +4774,6 @@
           <t>Ein Mann macht einen Rollerblading-Trick.</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>Ein Typ macht einen Rollerblade-Trick ist eine Umschreibung von ein Mann auf Inline-Skates, der fährt.</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5354,11 +4814,6 @@
           <t>Ein junger Junge singt.</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>Er singt.</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5399,11 +4854,6 @@
           <t>Die drei Frauen wandern.</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>Zwei Männer und eine Frau sind nicht dasselbe wie drei Frauen.</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5444,11 +4894,6 @@
           <t>Nach einem Spiel kauft ein Mann, der ein Alaska-Shirt und eine Baseballkappe trägt, Rubbellose, um Geld zu gewinnen.</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>Ein Mann muss nicht unbedingt die Rubbellose kaufen, um in der Lotterie zu gewinnen.</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5489,11 +4934,6 @@
           <t>Die langhaarige Frau entspannt sich und genießt ihre Ruhe.</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>Aus Satz 1 kann nicht geschlossen werden, dass die Frau sich entspannt und ihre Ruhe genießt.</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5534,11 +4974,6 @@
           <t>Es ist nur eine Person anwesend.</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>Wenn nur eine Person anwesend ist, können keine Surfer anwesend sein.</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5579,11 +5014,6 @@
           <t>Einige Männer in Uniform spielen in einer Marschkapelle.</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>Nicht alle amerikanischen Soldaten sind Männer in Uniform. Sie könnten Frauen sein.</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5624,11 +5054,6 @@
           <t>Ein Hund liegt schlafend neben einem anderen Hund auf einem Feld.</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>Ein Hund kann nicht gleichzeitig mit einem Gegenstand im Maul ein Nickerchen machen.</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5669,11 +5094,6 @@
           <t>Es gibt viele Menschen, die sich wünschen, auf einer Party zu sein.</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>Wenn Menschen sich wünschen, sie wären auf einer Party, sind sie nicht bei irgendeiner Art von Party, sondern machen etwas anderes.</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5714,11 +5134,6 @@
           <t>Eine nackte Frau mit blauen Haaren und Tätowierungen sitzt in einer Menschenmenge hinter einer Stoffabsperrung.</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>Pink ist nicht blau. Stehen ist nicht sitzen. Vorne ist nicht hinten.</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5759,11 +5174,6 @@
           <t>Eine Person macht einen Schokoladenkuchen.</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>Jemand kann eine Rührschüssel für etwas anderes als die Zubereitung eines Schokoladenkuchens verwenden.</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5804,11 +5214,6 @@
           <t>Ein Mann spielt Trompete.</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>Flöte ist keine Trompete.</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5849,11 +5254,6 @@
           <t>Die Frauen tragen Kreuze.</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>Wenn jemand ein Stethoskop trägt, befindet er sich wahrscheinlich bei der Arbeit und trägt keinen Schmuck, wie zum Beispiel Kreuze.</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5894,11 +5294,6 @@
           <t>Ein Mann spielt ein Instrument.</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>Etwas zu halten ist etwas anderes, als etwas zu spielen.</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5939,11 +5334,6 @@
           <t>Ein Hund läuft am Ufer entlang.</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>Ein Hund am Ufer impliziert, dass er matschig ist.</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5984,11 +5374,6 @@
           <t>Die Frau putzt.</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>Reinigen unterscheidet sich davon, das Essen anzuschauen.</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -6029,11 +5414,6 @@
           <t>Sie bereiten sich darauf vor, die Fahrt anzutreten.</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>In der Nähe einer Fahrt zu stehen bedeutet nicht, dass sie sich darauf vorbereiten, die Fahrt zu machen.</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -6074,11 +5454,6 @@
           <t>Ein junges Mädchen sucht sich ihren Lieblingsstoff aus.</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>Dass ein Mädchen von Stoffen umgeben ist, bedeutet nicht, dass sie ihren Lieblingsstoff auswählt.</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -6119,11 +5494,6 @@
           <t>Ein Turm strahlt sein orangefarbenes Licht aus.</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>Zwei Frauen blicken in Richtung eines orangefarbenen Leuchtturms im Schnee</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -6164,11 +5534,6 @@
           <t>Fisch schläft</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>Die Subjekte können entweder weibliche Darstellerinnen oder ein Fisch sein, der schläft.</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -6209,11 +5574,6 @@
           <t>Menschen gehen zu Fuß, um Geld für wohltätige Zwecke zu sammeln</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>Nur weil Menschen in einem Park an einer Veranstaltung teilnehmen, bedeutet das nicht, dass sie Geld für wohltätige Zwecke sammeln.</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -6254,11 +5614,6 @@
           <t>Zwei Personen stehen sich gegenüber.</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>Nicht alle Personen, die frontal zu sehen sind, ziehen lustige Gesichter.</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6299,11 +5654,6 @@
           <t>Die Schüler hatten ihre Bücher und Bleistifte bereit, als sie draußen im Wald saßen.</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>Beide sagen, dass die Studenten draußen im Wald sind.</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6344,11 +5694,6 @@
           <t>Der Mann steht in einem Pool.</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>Wir wissen nicht, ob das Wasser ein Pool ist.</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6389,11 +5734,6 @@
           <t>Eine Frau und ein Mann sind bekleidet.</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>Einen Mantel zu tragen bedeutet, bekleidet zu sein.</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6434,11 +5774,6 @@
           <t>Ein kleiner blonder Junge spielt draußen.</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>NICHT ALLE JUNGEN SIND BLOND UND ER SPIELT VIELLEICHT NICHT DRAUßEN MIT DEM SPIELZEUG.</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6479,11 +5814,6 @@
           <t>Ein Mann taucht mit Schnorchelausrüstung am Riff.</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>Jemand, der Gitarre spielt, ist kein Taucher.</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -6524,11 +5854,6 @@
           <t>die Frau ist weiß</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>Nicht alle Frauen sind weiß.</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6569,11 +5894,6 @@
           <t>Es gibt Männer, die Cupcakes machen.</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>Das Objekt muss nicht zwangsläufig Cupcakes sein.</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6614,11 +5934,6 @@
           <t>Menschen laufen in einem St.-Paddys-Tag-Marathon um die Wette</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>Es kann nicht daraus geschlossen werden, dass die Menschen an einem Marathon teilnehmen.</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -6659,11 +5974,6 @@
           <t>Menschen an einem nationalen Denkmal</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>Das Denkmal muss kein nationales Denkmal sein.</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -6704,11 +6014,6 @@
           <t>Ein paar Leute unterhalten sich um einige Gebäude herum.</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>Wenn man mit jemandem spricht, dann redet man per Definition mit ihm.</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -6749,11 +6054,6 @@
           <t>Ein kleines Kind in rotem Outfit schaut die Katze vor sich an.</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>Das Kind kann entweder ein blaues oder ein rotes Outfit tragen. Das Kind kann entweder auf einige Bäume in der Ferne oder auf die Katze vor ihm schauen.</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -6794,11 +6094,6 @@
           <t>Es gibt einen Mann auf einem Wachturm.</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>Eine erhöhte Plattform bedeutet nicht zwangsläufig einen Wachturm.</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -6839,11 +6134,6 @@
           <t>Zwei Frauen unterhalten sich</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>Eine Frau, die mit einer anderen Frau spricht, deutet darauf hin, dass zwei Frauen miteinander sprechen.</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -6884,11 +6174,6 @@
           <t>Ein Bruder und eine Schwester rennen.</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>Nur weil zwei Kinder, ein Junge und ein Mädchen, über den Boden laufen, bedeutet das nicht unbedingt, dass sie Bruder und Schwester sind.</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -6929,11 +6214,6 @@
           <t>Der Mann spielt Rockmusik.</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>Spielt er ein clownbezogenes Karnevalsspiel oder Rockmusik?</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -6974,11 +6254,6 @@
           <t>Der Mann wurde gelyncht.</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>"Hängen bedeutet nicht automatisch, dass der Mann gelyncht wurde."</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -7019,11 +6294,6 @@
           <t>Männer, die entlang eines Stegs gehen.</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>Gehen ist eine weitere Form von gehen.</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -7064,11 +6334,6 @@
           <t>Kleine Kinder, die sich etwas im Internet ansehen.</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>SIE SIND IM INTERNET.</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -7109,11 +6374,6 @@
           <t>Eine Geigerin spielt neben einem Werbeschild Flöte.</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>Ein Bratschist ist kein Geiger.</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -7154,11 +6414,6 @@
           <t>Zwei Männer unterhalten sich im Auto.</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>Zwei Männer sind mehr als ein Mann. Autos befinden sich nicht in Kellern.</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -7199,11 +6454,6 @@
           <t>Ein Mann, der eine Jacke trägt, steht in einer Türöffnung.</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>Der Mann in der roten Jacke, der in der Türöffnung steht, muss der Mann sein, der eine Jacke in der Türöffnung trägt.</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -7244,11 +6494,6 @@
           <t>Ein Fluss mit zwei Frauen daneben.</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>Wenn der Fluss neben den Frauen wäre, dann wären die Frauen neben dem Fluss.</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -7289,11 +6534,6 @@
           <t>Der Junge findet die Frau hübsch.</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>Man kann ängstlich wirken und trotzdem eine Frau nicht für hübsch halten.</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -7334,11 +6574,6 @@
           <t>Ein junger Mann spielt mit Seifenblasen.</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>Ein Mann, der mit „bubbled“ spielt, muss mit Seifenblasen spielen.</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -7379,11 +6614,6 @@
           <t>Der Hund sprang nach dem Ball.</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>Der Hund sprang in Richtung des Basketballs, der eine Art Ball ist.</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -7424,11 +6654,6 @@
           <t>Eine Person schiebt etwas.</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>In beiden Sätzen schiebt eine Person.</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -7469,11 +6694,6 @@
           <t>Der Mann trägt ein Souvenir aus New York City.</t>
         </is>
       </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>Satz eins besagt, dass der Mann einen roten Hut trägt, auf dem „NYC“ steht. Satz zwei besagt, dass der Mann ein Souvenir aus NYC trägt, was der rote Hut sein könnte.</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -7514,11 +6734,6 @@
           <t>Fünf Männer vergraben sich im Sand, hinter ihnen ein schwarz-weißes Hund.</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>Es gibt keinen Hinweis darauf, dass der Hund schwarz-weiß ist.</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -7559,11 +6774,6 @@
           <t>Ein Mann fährt Ski.</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>Ein Mann fährt Ski, um über einen Schneehaufen zu springen.</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -7604,11 +6814,6 @@
           <t>Eine Gruppe von Schülern sitzt an ihren Pulten in einem Klassenzimmer.</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>Die Gruppe kann in einem Klassenzimmer keine Darts werfen.</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -7649,11 +6854,6 @@
           <t>Der Mann saß auf dem Bürgersteig.</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>Ein Mann könnte licht werden.</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -7694,11 +6894,6 @@
           <t>Der Mann fährt einen Traktor.</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>Ein vietnamesischer Mann ist ein Mann.</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -7739,11 +6934,6 @@
           <t>Schlagzeuger sind draußen.</t>
         </is>
       </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>Wenn Menschen die Straße hinunter marschieren, dann sind sie draußen.</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -7784,11 +6974,6 @@
           <t>Eine alte Dame durchsucht ihre Schränke nach ihrer Lieblingstasse.</t>
         </is>
       </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>Eine ältere Dame kann nicht gleichzeitig durch ihre Schränke schauen und in der U-Bahn unterwegs sein.</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -7829,11 +7014,6 @@
           <t>Ein Mann in einem grünen Hemd fährt sein Motorrad.</t>
         </is>
       </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>Er kann nicht zwei Hemden tragen, eines blau und eines grün, die zufällig zum Helm passen, es sei denn, es ist von einem anderen Mann die Rede.</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -7874,11 +7054,6 @@
           <t>Der Fahrer ist ein Mann.</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>Der Fahrer muss nicht unbedingt ein Mann sein, es kann auch eine Frau am Steuer sein.</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -7919,11 +7094,6 @@
           <t>Das Kind ist ehrfürchtig gegenüber den tanzenden Erwachsenen.</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>Der Junge hat den Mund geöffnet, weil er wie die Erwachsenen tanzen möchte.</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -7964,11 +7134,6 @@
           <t>Die Jugend ist ein sehr guter Musiker.</t>
         </is>
       </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>Alt bedeutet älter und Jugend bedeutet jünger.</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -8009,11 +7174,6 @@
           <t>Der Mann ist nackt.</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>Man kann nicht gleichzeitig nackt und verkleidet sein.</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -8054,11 +7214,6 @@
           <t>Frauen rennen draußen.</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>Man kann nicht gleichzeitig rennen und auschecken.</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -8099,11 +7254,6 @@
           <t>Der Motorradfahrer wirbelt Staub auf der unbefestigten Straße auf.</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>Schnelles Fahren auf der Straße impliziert nicht, dass die Straße eine Schotterstraße ist.</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -8144,11 +7294,6 @@
           <t>Ein Mann schläft in der Öffentlichkeit.</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>Beide Sätze beschreiben einen Mann, der in der Öffentlichkeit schläft, aber der erste Satz ist spezifischer.</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -8189,11 +7334,6 @@
           <t>Ein Baseballspieler spielt Baseball.</t>
         </is>
       </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>Ein Baseballspieler und ein Fänger sind Positionen, die beim Baseballspielen benötigt werden.</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -8234,11 +7374,6 @@
           <t>Ein Junge spielt mit einer Spielzeugkamera.</t>
         </is>
       </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>Die Person ist nicht unbedingt ein Junge, und wenn sie die Kamera in die Nähe einer Menschenmenge richtet, ist es unwahrscheinlich, dass es sich um eine Spielzeugkamera handelt.</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -8279,11 +7414,6 @@
           <t>Die Menschen sind am Wasser.</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>Die Leute gehen weiter in den See hinein, daher müssen sie am Wasser sein.</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -8324,11 +7454,6 @@
           <t>Eine Gruppe von Männern beendet einen Marathon.</t>
         </is>
       </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>Der Spendenlauf ist ein Marathon.</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -8369,11 +7494,6 @@
           <t>Die Jungs saßen am Strand nahe am Wasser.</t>
         </is>
       </c>
-      <c r="M176" t="inlineStr">
-        <is>
-          <t>Drei Männer, die sitzen, wird umformuliert als „die Männer saßen“.</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -8414,11 +7534,6 @@
           <t>Ein Mann malt eine Naturszene auf ein Stück Holz.</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>Ein Mann kann auf ein Stück Holz alles malen, es muss kein Naturszenario sein.</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -8459,11 +7574,6 @@
           <t>Eine Familie klettert draußen in der Natur.</t>
         </is>
       </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>ALTE LAVASTRÖME SIND IM FREIEN.</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -8504,11 +7614,6 @@
           <t>Menschen auf den Treppen vor einem Park.</t>
         </is>
       </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>Backsteingebäude ist kein Park.</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -8549,11 +7654,6 @@
           <t>Der Junge ist in der Schule und arbeitet allein an den Hausaufgaben.</t>
         </is>
       </c>
-      <c r="M180" t="inlineStr">
-        <is>
-          <t>In dem ersten Satz ist von einem Mädchen die Rede, nicht von einem Jungen.</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -8594,11 +7694,6 @@
           <t>Ein Mann, der winterlich gekleidet ist, steht neben einem Drehspießgerät.</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>Wenn der Mann vor seiner Drehspießmaschine steht, befindet er sich bei einer Drehspießmaschine.</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -8639,11 +7734,6 @@
           <t>Ein Mann klettert einen Telefonmast hinauf.</t>
         </is>
       </c>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>Klettern und Sitzen sind verschieden.</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -8684,11 +7774,6 @@
           <t>Eine Person steht draußen neben einigen Hunden.</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr">
-        <is>
-          <t>Die Person steht in dem einen Satz neben Katzen und in dem anderen Satz neben Hunden.</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -8729,11 +7814,6 @@
           <t>Es gibt ein Feuer.</t>
         </is>
       </c>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>Ein Feuerwehrmann reagiert auf ein Feuer, wie es seine Pflicht ist.</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -8774,11 +7854,6 @@
           <t>Eine große Menschenmenge ist anwesend.</t>
         </is>
       </c>
-      <c r="M185" t="inlineStr">
-        <is>
-          <t>Viele Menschen sind eine große Gruppe. Das Zusammentreffen an einem Ort macht sie anwesend.</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -8819,11 +7894,6 @@
           <t>Eine Frau tritt einem Mann spielerisch.</t>
         </is>
       </c>
-      <c r="M186" t="inlineStr">
-        <is>
-          <t>Eine Frau tritt einen Mann.</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -8864,11 +7934,6 @@
           <t>Ein Paar in schwarzen Mänteln schaut in die Kamera, um ihre 15 Minuten Ruhm zu bekommen.</t>
         </is>
       </c>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>Ein Paar in schwarzen Mänteln schaut mit freundlichen Gesichtsausdrücken in die Kamera bedeutet nicht, dass das Paar in schwarzen Mänteln in die Kamera schaut, um seine 15 Minuten Ruhm zu haben.</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -8909,11 +7974,6 @@
           <t>Ein Mensch, der lächelt</t>
         </is>
       </c>
-      <c r="M188" t="inlineStr">
-        <is>
-          <t>Ein Mann ist ein Mensch.</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -8954,11 +8014,6 @@
           <t>Das Wasser ist kalt.</t>
         </is>
       </c>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>Nicht alles Wasser, in dem man schwimmt, ist kalt.</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -8999,11 +8054,6 @@
           <t>Ein hängender Mensch</t>
         </is>
       </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>Ein Mensch bezeichnet einen Gentleman, der aus einem Fenster hängt.</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -9044,11 +8094,6 @@
           <t>Ein Mann steht neben einem Essensstand.</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr">
-        <is>
-          <t>Ein Mann, der an einem Imbissstand im Freien steht, impliziert, dass der Mann als Teil der ursprünglichen Beschreibung des Mannes in einem bunten T-Shirt an einem Imbissstand steht.</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -9089,11 +8134,6 @@
           <t>Zwei Männer auf einem Bett.</t>
         </is>
       </c>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>Zwei Frauen an einem Tisch sind überhaupt nicht dasselbe wie zwei Männer auf einem Bett.</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -9134,11 +8174,6 @@
           <t>Ein Mädchen tanzt mit einem der vier.</t>
         </is>
       </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>Entweder tanzt ein Mädchen, während vier Jungen zusehen, oder ein Mädchen tanzt mit einem der vier Jungen.</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -9179,11 +8214,6 @@
           <t>Ein Mann und zwei Kinder spielen drinnen.</t>
         </is>
       </c>
-      <c r="M194" t="inlineStr">
-        <is>
-          <t>Ein Mann ist auch ein Typ. Kinder werden auch Kinder genannt. Ein Fliesenboden befindet sich im Inneren.</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -9224,11 +8254,6 @@
           <t>Menschen warten auf einen Bus.</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr">
-        <is>
-          <t>Sie warten möglicherweise nicht auf den Bus, sondern steigen möglicherweise aus dem Bus aus.</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -9269,11 +8294,6 @@
           <t>Das Kind trägt ein blaues Hemd und braune Hose.</t>
         </is>
       </c>
-      <c r="M196" t="inlineStr">
-        <is>
-          <t>Ein kleines Kind, das auf eine Metallpfanne schlägt, trägt nicht unbedingt ein blaues Hemd und braune Hosen.</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -9314,11 +8334,6 @@
           <t>Es liegt Schnee auf dem Boden.</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr">
-        <is>
-          <t>Schnee kann nur aufgewirbelt werden, wenn er auf dem Boden liegt.</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -9359,11 +8374,6 @@
           <t>Er ist gut im Sport.</t>
         </is>
       </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>Eine Person, die spielt, bedeutet nicht, dass sie gut im Sport ist.</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -9404,11 +8414,6 @@
           <t>Ein Mann und eine Frau sitzen in Gartenstühlen und lesen Bücher.</t>
         </is>
       </c>
-      <c r="M199" t="inlineStr">
-        <is>
-          <t>Die beiden Personen müssen nicht unbedingt jeweils einem anderen Geschlecht angehören. Es könnten stattdessen zwei Männer oder zwei Frauen sein.</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -9449,11 +8454,6 @@
           <t>Die Clowns sind im Umkleideraum.</t>
         </is>
       </c>
-      <c r="M200" t="inlineStr">
-        <is>
-          <t>Die Clowns können nicht gleichzeitig in der Theatereinstellung und im Umkleideraum sein.</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -9494,11 +8494,6 @@
           <t>Menschen sitzen und unterhalten sich.</t>
         </is>
       </c>
-      <c r="M201" t="inlineStr">
-        <is>
-          <t>Die Personen sind Vater und Tochter.</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -9539,11 +8534,6 @@
           <t>Zwei Kühe sind bei einem Rennen Kopf an Kopf.</t>
         </is>
       </c>
-      <c r="M202" t="inlineStr">
-        <is>
-          <t>Pferde und Kühe sind verschiedene Tierarten.</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -9584,11 +8574,6 @@
           <t>Menschen beobachten etwas.</t>
         </is>
       </c>
-      <c r="M203" t="inlineStr">
-        <is>
-          <t>Etwas zu beobachten bedeutet, etwas zu betrachten.</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -9629,11 +8614,6 @@
           <t>Ein Mann führt eine Operation am offenen Herzen durch.</t>
         </is>
       </c>
-      <c r="M204" t="inlineStr">
-        <is>
-          <t>Eine offene Herzoperation wird normalerweise nicht mit einem Schlauch durchgeführt.</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -9674,11 +8654,6 @@
           <t>Der Mann ist ein Bergsteiger.</t>
         </is>
       </c>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>Auf einem Berg zu sitzen bedeutet nicht zwangsläufig, dass die Person ein Bergsteiger ist.</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -9719,11 +8694,6 @@
           <t>Die Person wartet darauf, einen Bankräuber zu fangen.</t>
         </is>
       </c>
-      <c r="M206" t="inlineStr">
-        <is>
-          <t>Wache zu halten bedeutet nicht, dass er auf einen Bankräuber wartet.</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -9764,11 +8734,6 @@
           <t>Eine Gruppe auf der Bühne spielt Rockmusik für die versammelten Menschen.</t>
         </is>
       </c>
-      <c r="M207" t="inlineStr">
-        <is>
-          <t>Das Genre der Musik als Rock kann nicht angenommen werden.</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -9809,11 +8774,6 @@
           <t>Ein Mann tritt bei einem Rodeo auf.</t>
         </is>
       </c>
-      <c r="M208" t="inlineStr">
-        <is>
-          <t>Nicht alle Männer mit Hüten, die auf ungezähmten Pferden reiten, treten auf, und nicht alle treten speziell bei Rodeos auf.</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -9854,11 +8814,6 @@
           <t>Ein Mann und eine Frau blicken nach einem Unfall mit ihrem Motorrad auf der Autobahn darauf.</t>
         </is>
       </c>
-      <c r="M209" t="inlineStr">
-        <is>
-          <t>Das Motorrad muss nicht unbedingt ihr Motorrad sein, damit sie sich in der Nähe befinden, und es muss auch nicht auf der Seite liegen, weil es auf der Autobahn abgestürzt ist.</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -9899,11 +8854,6 @@
           <t>Ein Mädchen sitzt auf einer Mauer.</t>
         </is>
       </c>
-      <c r="M210" t="inlineStr">
-        <is>
-          <t>Wenn jemand sitzt, wird er sitzen.</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -9944,11 +8894,6 @@
           <t>Die Frau lächelt und schaut auf das Kind hinunter.</t>
         </is>
       </c>
-      <c r="M211" t="inlineStr">
-        <is>
-          <t>Wir haben keine Ahnung, dass sie lächelt und nach unten schaut; sie könnte überall hinschauen und möglicherweise überhaupt nicht lächeln.</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -9989,11 +8934,6 @@
           <t>Ältere Person überquert die Straße</t>
         </is>
       </c>
-      <c r="M212" t="inlineStr">
-        <is>
-          <t>Einzelperson fast dasselbe wie Person</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -10034,11 +8974,6 @@
           <t>Ein Mann spielt auf der Bühne Gitarre und singt in einer fremden Sprache.</t>
         </is>
       </c>
-      <c r="M213" t="inlineStr">
-        <is>
-          <t>Der Mann spielt entweder Schlagzeug oder singt.</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -10079,11 +9014,6 @@
           <t>Es gibt zwei Hunde.</t>
         </is>
       </c>
-      <c r="M214" t="inlineStr">
-        <is>
-          <t>Die beiden Hunde rennen zeigt, dass es zwei Hunde gibt.</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -10124,11 +9054,6 @@
           <t>Zwei Personen tanzen.</t>
         </is>
       </c>
-      <c r="M215" t="inlineStr">
-        <is>
-          <t>weibliche Tänzerin tanzt mit ihrem männlichen Partner</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -10169,11 +9094,6 @@
           <t>Ein Junge blickt auf eine Vierteldollarmünze auf dem Boden.</t>
         </is>
       </c>
-      <c r="M216" t="inlineStr">
-        <is>
-          <t>Es gibt mehr Dinge als ein Vierteldollar, die auf dem Boden liegen können.</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -10214,11 +9134,6 @@
           <t>Ein Mann ist in Nebraska tot.</t>
         </is>
       </c>
-      <c r="M217" t="inlineStr">
-        <is>
-          <t>Ein Mann würde entweder nach oben greifen oder tot sein.</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -10259,11 +9174,6 @@
           <t>Die Frau sieht sich die Modenschau im Fernsehen an.</t>
         </is>
       </c>
-      <c r="M218" t="inlineStr">
-        <is>
-          <t>Wenn die Frau angelt, sieht sie keine Sendung.</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -10304,11 +9214,6 @@
           <t>Einige Menschen schlafen.</t>
         </is>
       </c>
-      <c r="M219" t="inlineStr">
-        <is>
-          <t>Wenn Menschen zurückblicken, sind ihre Augen offen. Wenn sie schlafen, sind ihre Augen geschlossen. Eine Person kann nicht gleichzeitig ihre Augen offen und geschlossen haben.</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -10349,11 +9254,6 @@
           <t>Menschen tragen Anzüge in der Kirche.</t>
         </is>
       </c>
-      <c r="M220" t="inlineStr">
-        <is>
-          <t>Die Personen tragen entweder Anzüge oder sind verkleidet.</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -10394,11 +9294,6 @@
           <t>Ein Mann posiert auf einer Kostümparty.</t>
         </is>
       </c>
-      <c r="M221" t="inlineStr">
-        <is>
-          <t>Eine Maske impliziert keine Kostümparty.</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -10439,11 +9334,6 @@
           <t>Eine der sieben Zuschauer ist ein Mädchen.</t>
         </is>
       </c>
-      <c r="M222" t="inlineStr">
-        <is>
-          <t>Die Tatsache, dass es sieben Zuschauer gibt, impliziert nicht, dass einer ein Mädchen ist.</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -10484,11 +9374,6 @@
           <t>Ein alter Mann fährt mit dem Bus neben dem Park.</t>
         </is>
       </c>
-      <c r="M223" t="inlineStr">
-        <is>
-          <t>Ein Fahrrad unterscheidet sich von einem Bus.</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -10529,11 +9414,6 @@
           <t>Der junge Torwart hielt den Ball mit seinen Händen.</t>
         </is>
       </c>
-      <c r="M224" t="inlineStr">
-        <is>
-          <t>„Hält den Fußball auf“ ist eine Umschreibung von „den Ball gerettet“.</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -10574,11 +9454,6 @@
           <t>Eine junge Frau spielt Beachvolleyball.</t>
         </is>
       </c>
-      <c r="M225" t="inlineStr">
-        <is>
-          <t>Du kannst nicht gleichzeitig Tennis und Volleyball spielen.</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -10619,11 +9494,6 @@
           <t>Eine Frau posaunt für ein Foto, während sie einen Baum umarmt.</t>
         </is>
       </c>
-      <c r="M226" t="inlineStr">
-        <is>
-          <t>Jemand muss keine Dame sein. Nur weil jemand einen Baum hält, bedeutet das nicht, dass er für ein Foto posiert.</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -10664,11 +9534,6 @@
           <t>Köche bereiten Essen für Kunden zu.</t>
         </is>
       </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t>Charbroil-Essen impliziert, dass sie kochen.</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -10709,11 +9574,6 @@
           <t>Ein Junge macht einen Wheelie.</t>
         </is>
       </c>
-      <c r="M228" t="inlineStr">
-        <is>
-          <t>Einen Wheelie machen ist gleichbedeutend damit, einen Wheelie zu ziehen.</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -10754,11 +9614,6 @@
           <t>Der Skateboarder steht kurz davor, einen Trick auszuführen.</t>
         </is>
       </c>
-      <c r="M229" t="inlineStr">
-        <is>
-          <t>Ein Skateboarder, der eine Steigung hinauffährt, impliziert nicht, dass er kurz davor ist, einen Trick auszuführen.</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -10799,11 +9654,6 @@
           <t>Ein Hund ruht sich auf dem teppichbedeckten Boden aus.</t>
         </is>
       </c>
-      <c r="M230" t="inlineStr">
-        <is>
-          <t>Der Hund ist entweder auf der Straße oder auf dem Boden.</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -10844,11 +9694,6 @@
           <t>Männer reinigen das Gebäude unter einem teilweise bewölkten Himmel.</t>
         </is>
       </c>
-      <c r="M231" t="inlineStr">
-        <is>
-          <t>Ein blauer Himmel impliziert keinen teilweise bewölkten Himmel.</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -10889,11 +9734,6 @@
           <t>Ein Mann fährt mit dem Skateboard in der Nähe des Parks.</t>
         </is>
       </c>
-      <c r="M232" t="inlineStr">
-        <is>
-          <t>Ein Mann mit dem Park im Hintergrund muss bedeuten, dass er sich in der Nähe eines Parks befindet.</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -10934,11 +9774,6 @@
           <t>Das Publikum schaut auf das Feld.</t>
         </is>
       </c>
-      <c r="M233" t="inlineStr">
-        <is>
-          <t>Das Publikum in der Gegend schaut auf das Fußballfeld.</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -10979,11 +9814,6 @@
           <t>Der Junge schaut auf zwei Mädchen in einem Baum.</t>
         </is>
       </c>
-      <c r="M234" t="inlineStr">
-        <is>
-          <t>Nur weil er nach oben schaut, bedeutet das nicht, dass die Mädchen in einem Baum sind.</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -11024,11 +9854,6 @@
           <t>Das Boot fährt durch die Luft.</t>
         </is>
       </c>
-      <c r="M235" t="inlineStr">
-        <is>
-          <t>Der Mensch ist anders als das Boot.</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -11069,11 +9894,6 @@
           <t>Ein Mann bläst auf einer Party Seifenblasen.</t>
         </is>
       </c>
-      <c r="M236" t="inlineStr">
-        <is>
-          <t>Satz 1: Ein Mann in einem schwarzen Hemd macht Seifenblasen. Satz 2: Ein Mann macht auf einer Party Seifenblasen.</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -11114,11 +9934,6 @@
           <t>Der Junge mochte Cowboys.</t>
         </is>
       </c>
-      <c r="M237" t="inlineStr">
-        <is>
-          <t>Menschen sind nicht immer Jungen. Ein Kunstwerk eines Künstlers zeigt nicht immer Cowboys.</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -11159,11 +9974,6 @@
           <t>Ein Mann tritt in einer Band auf.</t>
         </is>
       </c>
-      <c r="M238" t="inlineStr">
-        <is>
-          <t>Nicht jeder Mann, der Schlagzeug spielt, spielt auch in einer Band.</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -11204,11 +10014,6 @@
           <t>Der Hund schaut die Orange an.</t>
         </is>
       </c>
-      <c r="M239" t="inlineStr">
-        <is>
-          <t>Nur weil er neben einer Orange steht, bedeutet das nicht, dass er sie anschaut.</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -11249,11 +10054,6 @@
           <t>Menschen fahren mit Fahrrädern im Wald.</t>
         </is>
       </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>Menschen können nicht gleichzeitig wandern und Fahrrad fahren.</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -11294,11 +10094,6 @@
           <t>Ein Mann hat kein Fahrrad.</t>
         </is>
       </c>
-      <c r="M241" t="inlineStr">
-        <is>
-          <t>Ein BMX-Fahrer muss ein Fahrrad haben.</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -11339,11 +10134,6 @@
           <t>Der Krankenwagen befördert einen Fahrgast.</t>
         </is>
       </c>
-      <c r="M242" t="inlineStr">
-        <is>
-          <t>Ein Krankenwagen, der die Straße entlangfährt, impliziert nicht, dass er einen Patienten transportiert.</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -11384,11 +10174,6 @@
           <t>Eine junge Frau trägt ein weißes Sommerkleid.</t>
         </is>
       </c>
-      <c r="M243" t="inlineStr">
-        <is>
-          <t>Nicht alle Sommerkleider sind weiß.</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -11429,11 +10214,6 @@
           <t>Die Menschen sind Außerirdische.</t>
         </is>
       </c>
-      <c r="M244" t="inlineStr">
-        <is>
-          <t>Menschen, die Motorräder fahren, sind nicht dasselbe wie Außerirdische.</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -11474,11 +10254,6 @@
           <t>Ein Mann steht auf einer Bank vor einem Krankenhaus.</t>
         </is>
       </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>Du kannst nicht gleichzeitig sitzen und stehen.</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -11519,11 +10294,6 @@
           <t>Eine Gruppe von Menschen tritt auf einer schwach beleuchteten Bühne auf.</t>
         </is>
       </c>
-      <c r="M246" t="inlineStr">
-        <is>
-          <t>Eine Gruppe von Menschen waren Männer und Frauen, die auf einer schwach beleuchteten Bühne auftreten.</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -11564,11 +10334,6 @@
           <t>Eine Arbeiterin badet ein neugeborenes Baby.</t>
         </is>
       </c>
-      <c r="M247" t="inlineStr">
-        <is>
-          <t>Wir können aus Satz 1 nicht schließen, dass das Baby neugeboren war.</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -11609,11 +10374,6 @@
           <t>Männer sitzen und schauen sich Bilder an.</t>
         </is>
       </c>
-      <c r="M248" t="inlineStr">
-        <is>
-          <t>Männer können sich auch andere Dinge als Bilder ansehen.</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -11654,11 +10414,6 @@
           <t>Es gibt ein rotes Auto, das auf einer Schotterstraße umgekippt ist.</t>
         </is>
       </c>
-      <c r="M249" t="inlineStr">
-        <is>
-          <t>Es wird angegeben, dass es ein rotes Auto gibt, das überschlagen ist.</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -11699,11 +10454,6 @@
           <t>Es gibt Menschen mit Gegenständen in ihren Einkaufswagen.</t>
         </is>
       </c>
-      <c r="M250" t="inlineStr">
-        <is>
-          <t>Personen, die aus dem Einkaufszentrum kommen, haben Gegenstände in ihren Einkaufswagen.</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -11744,11 +10494,6 @@
           <t>Die Kinder schreiben eine Prüfung.</t>
         </is>
       </c>
-      <c r="M251" t="inlineStr">
-        <is>
-          <t>Die Kinder lernen entweder etwas über ein Feuerwehrauto oder machen eine Prüfung.</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -11789,11 +10534,6 @@
           <t>Der alte Mann spielt im Freien ein Instrument.</t>
         </is>
       </c>
-      <c r="M252" t="inlineStr">
-        <is>
-          <t>Das Instrument ist ein Akkordeon. Der Satz geht von allgemein zu genauer von Satz 1 zu Satz 2.</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -11834,11 +10574,6 @@
           <t>Ein kleines, solides schwarzes Auto fährt mitten durch eine Menschenmenge.</t>
         </is>
       </c>
-      <c r="M253" t="inlineStr">
-        <is>
-          <t>Das Auto kann nicht gleichzeitig sowohl mit Flammen verziert als auch einfarbig schwarz sein.</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -11879,11 +10614,6 @@
           <t>Es gibt viele Bauern, die Samen pflanzen.</t>
         </is>
       </c>
-      <c r="M254" t="inlineStr">
-        <is>
-          <t>Eine pflanzenbezogene Aufgabe besteht nicht immer darin, Samen zu pflanzen.</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -11924,11 +10654,6 @@
           <t>Ein Kind steht auf dem Bürgersteig.</t>
         </is>
       </c>
-      <c r="M255" t="inlineStr">
-        <is>
-          <t>„steht auf dem Bürgersteig“ ist eine Umformulierung von „steht auf einem Abschnitt des Bürgersteigs“.</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -11969,11 +10694,6 @@
           <t>Ein Mann hilft einer Kuh bei der Geburt.</t>
         </is>
       </c>
-      <c r="M256" t="inlineStr">
-        <is>
-          <t>Zwei Personen oder es ist ein Mann</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -12014,11 +10734,6 @@
           <t>Ein Mann fährt Snowboard.</t>
         </is>
       </c>
-      <c r="M257" t="inlineStr">
-        <is>
-          <t>Snowboarden ist dasselbe wie Gleiten.</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -12059,11 +10774,6 @@
           <t>Die Menschen schauen ein Konzert.</t>
         </is>
       </c>
-      <c r="M258" t="inlineStr">
-        <is>
-          <t>Du kannst kein Konzert ansehen, während du gleichzeitig einen Marathon läufst.</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -12104,11 +10814,6 @@
           <t>Frau, die nichts trägt, näht ihren Daumen.</t>
         </is>
       </c>
-      <c r="M259" t="inlineStr">
-        <is>
-          <t>Man kann nicht nichts tragen, während man ein rotes kariertes Hemd trägt.</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -12149,11 +10854,6 @@
           <t>Drei ältere Frauen sitzen auf einer Bank.</t>
         </is>
       </c>
-      <c r="M260" t="inlineStr">
-        <is>
-          <t>Eine Person kann nicht gleichzeitig sitzen und gehen.</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -12194,11 +10894,6 @@
           <t>Ein Kind spielt mit einem Band.</t>
         </is>
       </c>
-      <c r="M261" t="inlineStr">
-        <is>
-          <t>Junge ist ein Kind, ein Band kann bunt sein</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -12239,11 +10934,6 @@
           <t>Zwei Frauen betrachten eine Landmasse.</t>
         </is>
       </c>
-      <c r="M262" t="inlineStr">
-        <is>
-          <t>Berge sind eine Landmasse.</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -12284,11 +10974,6 @@
           <t>Alle Männer tragen Anzüge.</t>
         </is>
       </c>
-      <c r="M263" t="inlineStr">
-        <is>
-          <t>Nicht alle Männergruppen, die einem Mann mit Brille zuhören, tragen Anzüge.</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -12329,11 +11014,6 @@
           <t>Ein altes Paar tanzt neben einem schlafenden Mann.</t>
         </is>
       </c>
-      <c r="M264" t="inlineStr">
-        <is>
-          <t>Das Paar tanzt vor dem Jukebox, nicht unbedingt neben dem schlafenden Mann.</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -12374,11 +11054,6 @@
           <t>Mutter und Kind schwimmen</t>
         </is>
       </c>
-      <c r="M265" t="inlineStr">
-        <is>
-          <t>Frau und Kind können nicht gleichzeitig am Strand stehen und schwimmen.</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -12419,11 +11094,6 @@
           <t>Es gibt keine Kebabspieße.</t>
         </is>
       </c>
-      <c r="M266" t="inlineStr">
-        <is>
-          <t>Wenn es einen Gemüse-Kebab gibt, gibt es Kababs.</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -12464,11 +11134,6 @@
           <t>Menschen bei einer Gedenkfeier.</t>
         </is>
       </c>
-      <c r="M267" t="inlineStr">
-        <is>
-          <t>Eine Veranstaltung mit Verkäufern und Essen könnte sich von einem Trauergottesdienst unterscheiden.</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -12509,11 +11174,6 @@
           <t>Der Pfannkuchen wird mit viel Zucker hergestellt.</t>
         </is>
       </c>
-      <c r="M268" t="inlineStr">
-        <is>
-          <t>Nur weil er den Pfannkuchen wendet, bedeutet das nicht, dass er mit viel Zucker gemacht ist.</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -12554,11 +11214,6 @@
           <t>Zwei Männer sehen zusammen in ihrem Wohnzimmer fern.</t>
         </is>
       </c>
-      <c r="M269" t="inlineStr">
-        <is>
-          <t>Die Männer würden nicht vor einer Steinmauer stehen, wenn sie Fernsehen in einem Zimmer schauen, weil die Mauer draußen wäre und das Zimmer drinnen ist.</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -12599,11 +11254,6 @@
           <t>Jungen schreiben in ein Notizbuch.</t>
         </is>
       </c>
-      <c r="M270" t="inlineStr">
-        <is>
-          <t>Ein Mann kann nicht nacheinander sowohl in einem Notizbuch als auch an der Wand schreiben.</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -12644,11 +11294,6 @@
           <t>Eine Gruppe trauriger Frauen mit ihren kleinen Kindern, zwei kleinen Mädchen und zwei kleinen Babys.</t>
         </is>
       </c>
-      <c r="M271" t="inlineStr">
-        <is>
-          <t>Eine Gruppe von Frauen impliziert nicht eine Gruppe trauriger Frauen.</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -12689,11 +11334,6 @@
           <t>Die Person reitet ein Pferd.</t>
         </is>
       </c>
-      <c r="M272" t="inlineStr">
-        <is>
-          <t>Ein Pferd zu reiten erfordert die volle Aufmerksamkeit des Reiters, und sie wird wahrscheinlich nicht gleichzeitig am Telefon sprechen.</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -12734,11 +11374,6 @@
           <t>Beide Frauen tragen Jeans.</t>
         </is>
       </c>
-      <c r="M273" t="inlineStr">
-        <is>
-          <t>Beide Frauen können keine Jeans tragen, wenn eine einen Rock trägt.</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -12779,11 +11414,6 @@
           <t>Der Schnee muss von dem Jungen geschaufelt werden.</t>
         </is>
       </c>
-      <c r="M274" t="inlineStr">
-        <is>
-          <t>Bereitet das Schaufeln vor, bedeutet nicht, dass es geschaufelt werden muss.</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -12824,11 +11454,6 @@
           <t>Es gibt jemanden, der Tricks auf seinem Snowboard macht.</t>
         </is>
       </c>
-      <c r="M275" t="inlineStr">
-        <is>
-          <t>Ein Snowboarder ist jemand, der Überschläge über einen Schneehügel macht.</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -12869,11 +11494,6 @@
           <t>Der Junge schwimmt in einem Pool.</t>
         </is>
       </c>
-      <c r="M276" t="inlineStr">
-        <is>
-          <t>Die Handlung des Jungen ist entweder Klettern oder Schwimmen.</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -12914,11 +11534,6 @@
           <t>Die Frauen stehen an der schwarzen Bartheke.</t>
         </is>
       </c>
-      <c r="M277" t="inlineStr">
-        <is>
-          <t>Frauen und Männer sind verschieden.</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -12959,11 +11574,6 @@
           <t>der neue Absolvent hat keine Arme</t>
         </is>
       </c>
-      <c r="M278" t="inlineStr">
-        <is>
-          <t>Personen ohne Arme können anderen Menschen nicht die Hand geben.</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -13004,11 +11614,6 @@
           <t>Ein Mann starrt eine Frau an.</t>
         </is>
       </c>
-      <c r="M279" t="inlineStr">
-        <is>
-          <t>Ein Mann kann entweder einen Baum oder eine Frau anstarren, aber nicht beides zugleich.</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -13049,11 +11654,6 @@
           <t>Die Hockeyspieler tragen grüne Uniformen.</t>
         </is>
       </c>
-      <c r="M280" t="inlineStr">
-        <is>
-          <t>Nicht alle Hockeyspieler tragen grüne Uniformen.</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -13094,11 +11694,6 @@
           <t>Indische Frau führt einen Tanz auf einer Bühne für einen Wettbewerb auf.</t>
         </is>
       </c>
-      <c r="M281" t="inlineStr">
-        <is>
-          <t>Die Frau könnte ausschließlich aus Spaß auftreten und nicht unbedingt für einen Wettbewerb.</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -13139,11 +11734,6 @@
           <t>Sie sind alle Freunde.</t>
         </is>
       </c>
-      <c r="M282" t="inlineStr">
-        <is>
-          <t>Nichts sagt aus, dass sie Freunde sind. Sie könnten Fremde sein.</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -13184,11 +11774,6 @@
           <t>Ein brauner Hund schwimmt im Wasser mit einem Ball im Maul.</t>
         </is>
       </c>
-      <c r="M283" t="inlineStr">
-        <is>
-          <t>Schwimmen im Wasser ist eine Umschreibung von schwimmt durch Wasser.</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -13229,11 +11814,6 @@
           <t>Der Mann spielt mit einem Hacky Sack.</t>
         </is>
       </c>
-      <c r="M284" t="inlineStr">
-        <is>
-          <t>Hackey Sack ist kein Teller mit Toast und Eiern, und man kann nicht mit einem Hackey Sack spielen, während man Essen anschaut.</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -13274,11 +11854,6 @@
           <t>Ein Bibliothekar hilft einem Besucher in der Bibliothek.</t>
         </is>
       </c>
-      <c r="M285" t="inlineStr">
-        <is>
-          <t>Ein Bibliothekar arbeitet normalerweise in einer Bibliothek.</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -13319,11 +11894,6 @@
           <t>Zwei Personen, die lächelnd eine Posaune halten.</t>
         </is>
       </c>
-      <c r="M286" t="inlineStr">
-        <is>
-          <t>Eine Posaune ist nicht das einzige Musikinstrument, das gehalten werden kann.</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -13364,11 +11934,6 @@
           <t>zwei Männer jagen eine riesige Kugel, die platzen wird, wenn sie sie nicht fangen</t>
         </is>
       </c>
-      <c r="M287" t="inlineStr">
-        <is>
-          <t>Einem Ball hinterherzujagen bedeutet nicht, dass der Ball platzen wird, wenn sie ihn nicht fangen.</t>
-        </is>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -13409,11 +11974,6 @@
           <t>Ein Mann in einem weißen Hemd sah zwei Motorräder.</t>
         </is>
       </c>
-      <c r="M288" t="inlineStr">
-        <is>
-          <t>Wir wissen nicht mit Sicherheit, dass der Mann zwei Motorräder gesehen hat.</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -13454,11 +12014,6 @@
           <t>Eine muslimische Frau ist bei der Veranstaltung mit leeren Händen.</t>
         </is>
       </c>
-      <c r="M289" t="inlineStr">
-        <is>
-          <t>Die Frau kann nicht mit leeren Händen sein und gleichzeitig Ballons halten.</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -13499,11 +12054,6 @@
           <t>Große Menschen bei der Arbeit</t>
         </is>
       </c>
-      <c r="M290" t="inlineStr">
-        <is>
-          <t>Nur weil die zwei Menschen arbeiten, bedeutet das nicht, dass sie an einem Fahrrad arbeiten, oder dass das Fahrrad einem Mädchen gehört, oder dass sie Männer sind, oder dass sie groß sind.</t>
-        </is>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -13544,11 +12094,6 @@
           <t>Männer werfen einen Basketball.</t>
         </is>
       </c>
-      <c r="M291" t="inlineStr">
-        <is>
-          <t>Nur weil eine Gruppe von Männern Basketball spielt, bedeutet das nicht, dass die Männer einen Basketball werfen.</t>
-        </is>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -13589,11 +12134,6 @@
           <t>Eine weibliche Akrobatin arbeitet für einen Zirkus und probt.</t>
         </is>
       </c>
-      <c r="M292" t="inlineStr">
-        <is>
-          <t>Nicht alle Künstlereinnen und Künstler im Bereich Körperverdrehung arbeiten für einen Zirkus.</t>
-        </is>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -13634,11 +12174,6 @@
           <t>Eine glänzende Statue von Männern auf Fahrrädern.</t>
         </is>
       </c>
-      <c r="M293" t="inlineStr">
-        <is>
-          <t>Eine silberne Statue von Männern auf Fahrrädern deutet nicht darauf hin, dass eine glänzende Statue von Männern auf Fahrrädern existiert.</t>
-        </is>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -13679,11 +12214,6 @@
           <t>Ein Bauarbeiter verrichtet seine Arbeit.</t>
         </is>
       </c>
-      <c r="M294" t="inlineStr">
-        <is>
-          <t>Ein Bauarbeiter verrichtet nicht notwendigerweise gerade seine Arbeit.</t>
-        </is>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -13724,11 +12254,6 @@
           <t>Hund frisst Gras</t>
         </is>
       </c>
-      <c r="M295" t="inlineStr">
-        <is>
-          <t>Ein Mann ist kein Hund. Zementstraßen haben kein Gras.</t>
-        </is>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -13769,11 +12294,6 @@
           <t>Die Blondine spielt Hufeisen im Schnee.</t>
         </is>
       </c>
-      <c r="M296" t="inlineStr">
-        <is>
-          <t>Eine Dame ist eine Frau.</t>
-        </is>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -13814,11 +12334,6 @@
           <t>Zwei Fußballmannschaften gratulieren einander.</t>
         </is>
       </c>
-      <c r="M297" t="inlineStr">
-        <is>
-          <t>Sie würden sich nicht im Wettbewerb befinden, wenn sie sich gegenseitig gratulieren würden, denn das würde bedeuten, dass das Spiel vorbei ist und sie nicht mehr konkurrieren.</t>
-        </is>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -13859,11 +12374,6 @@
           <t>Eine Frau, die ein Hemd trägt, küsst eine andere Frau.</t>
         </is>
       </c>
-      <c r="M298" t="inlineStr">
-        <is>
-          <t>Ein Typ ist ein Mann, der keine Frau ist.</t>
-        </is>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -13904,11 +12414,6 @@
           <t>Eine indianische Frau, die einen Kopfschmuck trägt.</t>
         </is>
       </c>
-      <c r="M299" t="inlineStr">
-        <is>
-          <t>Nicht jede Frau mit Federn im Haar ist eine Ureinwohnerin Amerikas, und Federn im Haar bedeuten nicht unbedingt eine Kopfbedeckung.</t>
-        </is>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -13949,11 +12454,6 @@
           <t>Zwei große Hunde liegen auf dem Rücken und schlafen tief und fest.</t>
         </is>
       </c>
-      <c r="M300" t="inlineStr">
-        <is>
-          <t>Nur weil die Hunde liegen, bedeutet das nicht, dass sie schlafen.</t>
-        </is>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -13994,11 +12494,6 @@
           <t>Ein Mann zerlegt eine Maschine.</t>
         </is>
       </c>
-      <c r="M301" t="inlineStr">
-        <is>
-          <t>Reparieren ist nicht dasselbe wie das Auseinandernehmen einer Maschine.</t>
-        </is>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -14039,11 +12534,6 @@
           <t>Eine Frau geht durch ein Tal.</t>
         </is>
       </c>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>Ein Mann ist keine Frau.</t>
-        </is>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -14084,11 +12574,6 @@
           <t>Der Mann macht Kunststücke.</t>
         </is>
       </c>
-      <c r="M303" t="inlineStr">
-        <is>
-          <t>Satz 1 verlangt nicht, dass der Mann sich auf diese Weise verhält, weil er Kunststücke macht.</t>
-        </is>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -14129,11 +12614,6 @@
           <t>Frauen bei einer Veranstaltung sind amüsiert.</t>
         </is>
       </c>
-      <c r="M304" t="inlineStr">
-        <is>
-          <t>Die Frauen lachen, also müssen sie amüsiert sein.</t>
-        </is>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -14174,11 +12654,6 @@
           <t>Ein junger Mann und eine junge Frau teilten sich ein Bier.</t>
         </is>
       </c>
-      <c r="M305" t="inlineStr">
-        <is>
-          <t>Sie können nicht gleichzeitig lachen, während sie ein Bier teilen.</t>
-        </is>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -14219,11 +12694,6 @@
           <t>Zwei Männer sitzen an der Bar und schauen das Spiel.</t>
         </is>
       </c>
-      <c r="M306" t="inlineStr">
-        <is>
-          <t>Zwei Männer können nicht gleichzeitig zuschauen und pusten.</t>
-        </is>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -14264,11 +12734,6 @@
           <t>Ein Mann tritt auf einem Bürgersteig in der Stadt auf.</t>
         </is>
       </c>
-      <c r="M307" t="inlineStr">
-        <is>
-          <t>Werfen bedeutet nicht immer Ausführen.</t>
-        </is>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -14309,11 +12774,6 @@
           <t>Ein Mann in Gelb und ein Mann in Grün fahren an einem bewölkten Tag mit einem Boot den schlammigen Fluss hinunter.</t>
         </is>
       </c>
-      <c r="M308" t="inlineStr">
-        <is>
-          <t>Es kann nicht geschlossen werden, dass der Fluss schlammig ist.</t>
-        </is>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -14354,11 +12814,6 @@
           <t>Junge auf seinem Fahrrad schaut sich einen Werkzeugkasten an</t>
         </is>
       </c>
-      <c r="M309" t="inlineStr">
-        <is>
-          <t>Ein Junge betrachtet ein Werkzeugset.</t>
-        </is>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -14399,11 +12854,6 @@
           <t>Ein Junge spielt Fangen.</t>
         </is>
       </c>
-      <c r="M310" t="inlineStr">
-        <is>
-          <t>Wenn der Junge versucht, den Ball zu fangen, wird impliziert, dass er Fangen spielt.</t>
-        </is>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -14444,11 +12894,6 @@
           <t>Die fünf Personen sitzen an einem Tisch.</t>
         </is>
       </c>
-      <c r="M311" t="inlineStr">
-        <is>
-          <t>Die Personen können nicht an einem Tisch sitzen, während sie in einer Küche arbeiten.</t>
-        </is>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -14489,11 +12934,6 @@
           <t>Ein Junge liegt im Gras.</t>
         </is>
       </c>
-      <c r="M312" t="inlineStr">
-        <is>
-          <t>Der liegende Junge muss sich auf einem Körperteil befinden, und zwar auf seinem Bauch.</t>
-        </is>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -14534,11 +12974,6 @@
           <t>Die Kinder sind in der Nähe einer Baustelle.</t>
         </is>
       </c>
-      <c r="M313" t="inlineStr">
-        <is>
-          <t>Die Kinder könnten mit Spielzeugschaufeln und Baggern spielen, nicht neben einer Baustelle.</t>
-        </is>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -14579,11 +13014,6 @@
           <t>Zwei Männer stehen neben einem Mikroskop.</t>
         </is>
       </c>
-      <c r="M314" t="inlineStr">
-        <is>
-          <t>Wenn ein Mann ein Mikroskop benutzt und ein Wissenschaftler ihm über die Schulter schaut, dann stehen zwei Männer neben einem Mikroskop.</t>
-        </is>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -14624,11 +13054,6 @@
           <t>Chirurgen eilen, um ein Leben zu retten.</t>
         </is>
       </c>
-      <c r="M315" t="inlineStr">
-        <is>
-          <t>Die Tatsache, dass die Chirurgen während der Operation blaue Kleidung tragen, impliziert nicht, dass sie um das Leben eines Patienten kämpfen.</t>
-        </is>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -14669,11 +13094,6 @@
           <t>Zwei Personen spielen Schach.</t>
         </is>
       </c>
-      <c r="M316" t="inlineStr">
-        <is>
-          <t>Schach und Fußball sind zwei verschiedene Spiele. Drei Spieler und zwei Spieler sind zwei unterschiedliche Spielerzahlen.</t>
-        </is>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -14714,11 +13134,6 @@
           <t>Die Leute sitzen auf einer Couch und sehen fern.</t>
         </is>
       </c>
-      <c r="M317" t="inlineStr">
-        <is>
-          <t>Satz 1 beschreibt einen Mann. Satz 2 beschreibt Menschen. Dies sind zwei verschiedene Handlungen.</t>
-        </is>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -14759,11 +13174,6 @@
           <t>Einige Leute stellen Stühle vor dem Ozean auf.</t>
         </is>
       </c>
-      <c r="M318" t="inlineStr">
-        <is>
-          <t>Nur weil Leute Stühle am Strand aufstellen, bedeutet das nicht, dass der Strand vor dem Ozean liegt.</t>
-        </is>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -14804,11 +13214,6 @@
           <t>Ein Mann unterzieht sich einer Kieferoperation.</t>
         </is>
       </c>
-      <c r="M319" t="inlineStr">
-        <is>
-          <t>Man kann nicht gleichzeitig essen und eine Kieferoperation haben.</t>
-        </is>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -14849,11 +13254,6 @@
           <t>Die Leute warten darauf, dass eine Fahrgemeinschaft ankommt.</t>
         </is>
       </c>
-      <c r="M320" t="inlineStr">
-        <is>
-          <t>Die Menschen warten auf zwei verschiedene Dinge, einen Zug und eine Fahrgemeinschaft.</t>
-        </is>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -14894,11 +13294,6 @@
           <t>Ein Junge spielt in einem Sandkasten.</t>
         </is>
       </c>
-      <c r="M321" t="inlineStr">
-        <is>
-          <t>Nur weil er mit seinem Lastwagen spielt, bedeutet das nicht, dass der Lastwagen in einem Sandkasten ist.</t>
-        </is>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -14939,11 +13334,6 @@
           <t>Eine Dame geht spazieren.</t>
         </is>
       </c>
-      <c r="M322" t="inlineStr">
-        <is>
-          <t>Eine ältere Dame mit einem Gehstock und einer Handtasche geht impliziert, dass die Dame geht.</t>
-        </is>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -14984,11 +13374,6 @@
           <t>Er erzielt einen Dreipunktewurf.</t>
         </is>
       </c>
-      <c r="M323" t="inlineStr">
-        <is>
-          <t>Es ist unmöglich, einen Dreipunktewurf und einen Dunk zu erzielen.</t>
-        </is>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -15029,11 +13414,6 @@
           <t>In der Nähe einer U-Bahn spielen Menschen auf einer Rolltreppe.</t>
         </is>
       </c>
-      <c r="M324" t="inlineStr">
-        <is>
-          <t>Die Menschen benutzen nicht nur die Rolltreppe, sondern spielen auch darauf herum.</t>
-        </is>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -15074,11 +13454,6 @@
           <t>Ein Hund liegt auf dem Sofa und sieht gelangweilt aus.</t>
         </is>
       </c>
-      <c r="M325" t="inlineStr">
-        <is>
-          <t>Ein Hund, der auf dem Bürgersteig läuft, ist nicht dasselbe wie ein Hund, der passiv auf einer Couch liegt.</t>
-        </is>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -15119,11 +13494,6 @@
           <t>Eine Frau steht neben einem Fahrrad.</t>
         </is>
       </c>
-      <c r="M326" t="inlineStr">
-        <is>
-          <t>Du musst neben einem Fahrrad stehen, bevor du darauf steigst.</t>
-        </is>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -15164,11 +13534,6 @@
           <t>Ein Mann hat keine Arme.</t>
         </is>
       </c>
-      <c r="M327" t="inlineStr">
-        <is>
-          <t>Ein Mann kann ein Saiteninstrument nicht halten, wenn er keine Arme hat.</t>
-        </is>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -15209,11 +13574,6 @@
           <t>Ein Mann trägt blaue Jeans.</t>
         </is>
       </c>
-      <c r="M328" t="inlineStr">
-        <is>
-          <t>Ein Mann trägt schwarze Shorts mit weißen Streifen, daher trägt er keine blaue Jeans.</t>
-        </is>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -15254,11 +13614,6 @@
           <t>Zwei Frauen versammeln sich um einen Computer.</t>
         </is>
       </c>
-      <c r="M329" t="inlineStr">
-        <is>
-          <t>Eine Frau, die einer anderen Frau hilft, impliziert zwei Frauen.</t>
-        </is>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -15299,11 +13654,6 @@
           <t>Die Leute werden sich ein Baseballspiel ansehen.</t>
         </is>
       </c>
-      <c r="M330" t="inlineStr">
-        <is>
-          <t>Sie können nicht davon ausgehen, dass sie sich bei einem Baseballspiel befinden, und es wird auch nicht angedeutet. Nicht alle Spiele sind Baseballspiele.</t>
-        </is>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -15344,11 +13694,6 @@
           <t>Eine Frau versucht, auf einem Bauernmarkt Gegenstände zu verkaufen.</t>
         </is>
       </c>
-      <c r="M331" t="inlineStr">
-        <is>
-          <t>Nur weil eine Frau neben Obstständen steht, bedeutet das nicht, dass sie versucht, auf einem Bauernmarkt Waren zu verkaufen.</t>
-        </is>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -15389,11 +13734,6 @@
           <t>Die Arbeiter bauen ein Badezimmer.</t>
         </is>
       </c>
-      <c r="M332" t="inlineStr">
-        <is>
-          <t>Nicht alle Arbeiter, die Fliesen an Wänden anbringen, bauen ein Badezimmer.</t>
-        </is>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -15434,11 +13774,6 @@
           <t>Der Mann ist ein professioneller BMX-Fahrer.</t>
         </is>
       </c>
-      <c r="M333" t="inlineStr">
-        <is>
-          <t>Nicht alle Männer, die versuchen, einen BMX-Fahrradtrick auszuführen, sind Profis.</t>
-        </is>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -15479,11 +13814,6 @@
           <t>Der Hund wird seinen Herrchen vor Schurken retten.</t>
         </is>
       </c>
-      <c r="M334" t="inlineStr">
-        <is>
-          <t>Es kann nicht geschlossen werden, dass der laufende Hund seinen Herrn vor Bösewichten retten wird.</t>
-        </is>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -15524,11 +13854,6 @@
           <t>Das Kind ist draußen im Pool.</t>
         </is>
       </c>
-      <c r="M335" t="inlineStr">
-        <is>
-          <t>Das Kind ist draußen, weil sich der Pool, in dem es ist, im Freien befindet.</t>
-        </is>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -15569,11 +13894,6 @@
           <t>Du kannst Telefonleitungen am Himmel sehen.</t>
         </is>
       </c>
-      <c r="M336" t="inlineStr">
-        <is>
-          <t>Indem man Telefonleitungen sehen kann, weiß man, dass sie sichtbar sind.</t>
-        </is>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -15614,11 +13934,6 @@
           <t>Zwei Personen stehen dicht beieinander.</t>
         </is>
       </c>
-      <c r="M337" t="inlineStr">
-        <is>
-          <t>Ein Mann und eine Frau sind 2 Personen. Neben jemandem zu stehen bedeutet, nah zu sein.</t>
-        </is>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -15659,11 +13974,6 @@
           <t>Eine Frau reicht Kindern in einer Cafeteria Eier in der Reihe.</t>
         </is>
       </c>
-      <c r="M338" t="inlineStr">
-        <is>
-          <t>Ein Mann und eine Frau sind nicht dasselbe, und ein Bettlaken einzustecken ist nicht dasselbe wie Eier zu servieren.</t>
-        </is>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -15704,11 +14014,6 @@
           <t>zwei Geschwister in einer Menschenmenge mit einem Stock</t>
         </is>
       </c>
-      <c r="M339" t="inlineStr">
-        <is>
-          <t>Der zweite Satz könnte von anderen Geschwistern sprechen.</t>
-        </is>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -15749,11 +14054,6 @@
           <t>Ein Mann hält das Brautkleid, um zu verhindern, dass es schmutzig wird, weil er viel Geld dafür bezahlt hat.</t>
         </is>
       </c>
-      <c r="M340" t="inlineStr">
-        <is>
-          <t>Nur weil ein Mann das Brautkleid hochhält, um es vor Schmutz zu bewahren, bedeutet das nicht, dass er es bezahlt hat oder dass es viel Geld gekostet hat.</t>
-        </is>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -15794,11 +14094,6 @@
           <t>Eine Frau tanzt.</t>
         </is>
       </c>
-      <c r="M341" t="inlineStr">
-        <is>
-          <t>Auf Kirchenbänken zu balancieren und zu tanzen impliziert Tanzen.</t>
-        </is>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -15839,11 +14134,6 @@
           <t>Der Kletterer ist schon zuvor gefallen.</t>
         </is>
       </c>
-      <c r="M342" t="inlineStr">
-        <is>
-          <t>Es gibt keine Gewissheit, dass der Kletterer zuvor gefallen ist.</t>
-        </is>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -15884,11 +14174,6 @@
           <t>Menschen in der Küche schlagen sich gegenseitig.</t>
         </is>
       </c>
-      <c r="M343" t="inlineStr">
-        <is>
-          <t>Ein Mann und eine Frau, die sich zu einem Mann und einer Frau umgedreht haben, sind keine Personen, die sich gegenseitig schlagen.</t>
-        </is>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -15929,11 +14214,6 @@
           <t>Die Polizeibeamten sind draußen.</t>
         </is>
       </c>
-      <c r="M344" t="inlineStr">
-        <is>
-          <t>Polizisten sind draußen, weil sie auf der Straße sind.</t>
-        </is>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -15974,11 +14254,6 @@
           <t>Ein Mann und sein Sohn sitzen in einer Banane.</t>
         </is>
       </c>
-      <c r="M345" t="inlineStr">
-        <is>
-          <t>Entweder sitzen eine Frau und ein Kind in einer Erdbeere oder ein Mann und sein Sohn sitzen in einer Banane.</t>
-        </is>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -16019,11 +14294,6 @@
           <t>Die Kinder stehen kurz davor, draußen mit dem Joggen zu beginnen.</t>
         </is>
       </c>
-      <c r="M346" t="inlineStr">
-        <is>
-          <t>Zusammen gehen bedeutet nicht zwangsläufig, dass man gleich mit dem Joggen anfängt.</t>
-        </is>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -16064,11 +14334,6 @@
           <t>Einige Männer sind bei einem Konzert glücklich.</t>
         </is>
       </c>
-      <c r="M347" t="inlineStr">
-        <is>
-          <t>Nicht jeder lächelt, wenn er glücklich ist; nicht jeder ist glücklich, wenn er lächelt. Tanzen findet überall statt, nicht nur bei einem Konzert.</t>
-        </is>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -16109,11 +14374,6 @@
           <t>Im Inneren der Bibliothek.</t>
         </is>
       </c>
-      <c r="M348" t="inlineStr">
-        <is>
-          <t>Du kannst nicht gleichzeitig drinnen und draußen sein.</t>
-        </is>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -16154,11 +14414,6 @@
           <t>Einige Leute und ihre Fahrräder reihten sich im Park auf.</t>
         </is>
       </c>
-      <c r="M349" t="inlineStr">
-        <is>
-          <t>Ein Anlegesteg am Wasser könnte sich möglicherweise nicht in einem Park befinden.</t>
-        </is>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -16199,11 +14454,6 @@
           <t>Der Mann fährt Skateboard.</t>
         </is>
       </c>
-      <c r="M350" t="inlineStr">
-        <is>
-          <t>Wenn er ein Skateboard besitzt und darauf grindet, wird impliziert, dass er sie fährt.</t>
-        </is>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -16244,11 +14494,6 @@
           <t>Eine Frau steht und kocht für ihre Kinder.</t>
         </is>
       </c>
-      <c r="M351" t="inlineStr">
-        <is>
-          <t>Die Frau sitzt entweder oder steht, und näht entweder oder kocht.</t>
-        </is>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -16289,11 +14534,6 @@
           <t>Eine Person hält die Hand einer anderen Person.</t>
         </is>
       </c>
-      <c r="M352" t="inlineStr">
-        <is>
-          <t>Ein Mann, der Händchen hält mit einer Frau, ist eine Person, die Händchen hält mit einer anderen Person. Dies ist eine prägnante Wiederholung.</t>
-        </is>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -16334,11 +14574,6 @@
           <t>Ein Mädchen in einem roten Hemd isst ein Eis.</t>
         </is>
       </c>
-      <c r="M353" t="inlineStr">
-        <is>
-          <t>Ein schwarzes Hemd unterscheidet sich von einem roten Hemd.</t>
-        </is>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -16379,11 +14614,6 @@
           <t>Die Frau ist vollständig bekleidet.</t>
         </is>
       </c>
-      <c r="M354" t="inlineStr">
-        <is>
-          <t>Ein Rock und ein Unterrock sind Kleidungsstücke, die Frau ist vollständig bekleidet, wenn sie diese trägt.</t>
-        </is>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -16424,11 +14654,6 @@
           <t>Ein Mann fährt mit dem Snowboard einen Hang hinunter.</t>
         </is>
       </c>
-      <c r="M355" t="inlineStr">
-        <is>
-          <t>Der Typ kann nicht gleichzeitig Ski fahren und snowboarden.</t>
-        </is>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -16469,11 +14694,6 @@
           <t>Ein Mann, der in das Bein geschossen wurde, spielt ein Spiel.</t>
         </is>
       </c>
-      <c r="M356" t="inlineStr">
-        <is>
-          <t>Wir wissen nicht, ob er erschossen wurde, und deshalb nur ein Bein hat.</t>
-        </is>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -16514,11 +14734,6 @@
           <t>Zwei Personen sitzen im hinteren Bereich eines Fahrzeugs.</t>
         </is>
       </c>
-      <c r="M357" t="inlineStr">
-        <is>
-          <t>Es wurde bereits festgestellt, dass sie im hinteren Bereich eines Fahrzeugs sitzen.</t>
-        </is>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -16559,11 +14774,6 @@
           <t>Die Männer sind bei einer Beerdigung.</t>
         </is>
       </c>
-      <c r="M358" t="inlineStr">
-        <is>
-          <t>Menschen feiern nicht bei einer Beerdigung.</t>
-        </is>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -16604,11 +14814,6 @@
           <t>Der Mann arbeitet in einem sehr sterilen Labor.</t>
         </is>
       </c>
-      <c r="M359" t="inlineStr">
-        <is>
-          <t>Man würde in einem sterilen Labor keinen Hund haben.</t>
-        </is>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -16649,11 +14854,6 @@
           <t>Die Menschen sitzen an einem Tisch vor einer Bühne.</t>
         </is>
       </c>
-      <c r="M360" t="inlineStr">
-        <is>
-          <t>Zwei Personen auf einer Bühne halten Mikrofone oder sie sitzen einfach an einem Tisch vor einer Bühne.</t>
-        </is>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -16694,11 +14894,6 @@
           <t>Jemand arbeitet bei heißem Wetter.</t>
         </is>
       </c>
-      <c r="M361" t="inlineStr">
-        <is>
-          <t>feucht bedeutet heiß</t>
-        </is>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -16739,11 +14934,6 @@
           <t>Eine Frau schaut.</t>
         </is>
       </c>
-      <c r="M362" t="inlineStr">
-        <is>
-          <t>Eine Frau, die schaut, ist dasselbe wie eine Frau schaut.</t>
-        </is>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -16784,11 +14974,6 @@
           <t>Niemand meditiert</t>
         </is>
       </c>
-      <c r="M363" t="inlineStr">
-        <is>
-          <t>Es sind entweder acht Personen oder niemand.</t>
-        </is>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -16829,11 +15014,6 @@
           <t>Zwei College-Studenten spielen miteinander Nintendo.</t>
         </is>
       </c>
-      <c r="M364" t="inlineStr">
-        <is>
-          <t>Zwei College-Studenten in weißen T-Shirts, die sitzen und Nintendo spielen, bedeuten nicht, dass sie gemeinsam Nintendo spielen.</t>
-        </is>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -16874,11 +15054,6 @@
           <t>Ein Mann in einem Regenmantel bewegt einige Gegenstände.</t>
         </is>
       </c>
-      <c r="M365" t="inlineStr">
-        <is>
-          <t>Ein Regenmantel ist ein Mantel.</t>
-        </is>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -16919,11 +15094,6 @@
           <t>Der Mann befindet sich in einer Menschenmenge.</t>
         </is>
       </c>
-      <c r="M366" t="inlineStr">
-        <is>
-          <t>Der Mann ist in einer Menschenmenge ist dasselbe wie Mann in der Menschenmenge.</t>
-        </is>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -16964,11 +15134,6 @@
           <t>Eine Familie isst.</t>
         </is>
       </c>
-      <c r="M367" t="inlineStr">
-        <is>
-          <t>Eine gute Zeit beim Essen zu haben, ist essen.</t>
-        </is>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -17009,11 +15174,6 @@
           <t>Ein Paar bräunt sich in den Sonnenstrahlen.</t>
         </is>
       </c>
-      <c r="M368" t="inlineStr">
-        <is>
-          <t>Nur weil ein Paar am Strand in Sonnenbrillen liegt, bedeutet das nicht, dass sie gerade braun werden.</t>
-        </is>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -17054,11 +15214,6 @@
           <t>Draußen befinden sich Tiere.</t>
         </is>
       </c>
-      <c r="M369" t="inlineStr">
-        <is>
-          <t>Hunde sind eine Form von Tieren, und die Tatsache, dass sie im Hof sind, impliziert, dass sie sich im Freien befinden.</t>
-        </is>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -17099,11 +15254,6 @@
           <t>Der Mann hat einen Hammer in der Hand.</t>
         </is>
       </c>
-      <c r="M370" t="inlineStr">
-        <is>
-          <t>Nicht jeder, der an einem Boot arbeitet, benutzt einen Hammer.</t>
-        </is>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -17144,11 +15294,6 @@
           <t>Die Männer spielen seit Stunden Musik.</t>
         </is>
       </c>
-      <c r="M371" t="inlineStr">
-        <is>
-          <t>Du kannst nicht folgern, dass Stunden vergangen sind.</t>
-        </is>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -17189,11 +15334,6 @@
           <t>Eine Frau, die einen Rock trägt, rollt einen Ball.</t>
         </is>
       </c>
-      <c r="M372" t="inlineStr">
-        <is>
-          <t>Frau ist Dame.</t>
-        </is>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -17234,11 +15374,6 @@
           <t>Menschen, die Hüte tragen und Rucksäcke bei sich haben.</t>
         </is>
       </c>
-      <c r="M373" t="inlineStr">
-        <is>
-          <t>Ein Mann und eine Frau sind Personen.</t>
-        </is>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -17279,11 +15414,6 @@
           <t>Der Jongleur wirft nur einen Gegenstand.</t>
         </is>
       </c>
-      <c r="M374" t="inlineStr">
-        <is>
-          <t>Balljonglieren würde normalerweise mehr als einen Gegenstand erfordern.</t>
-        </is>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -17324,11 +15454,6 @@
           <t>Ein Skateboarder in einem grünen Hemd macht einen Sprung.</t>
         </is>
       </c>
-      <c r="M375" t="inlineStr">
-        <is>
-          <t>Der Skateboarder trägt ein grünes Hemd und macht gerade einen Sprung.</t>
-        </is>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -17369,11 +15494,6 @@
           <t>Das Einkaufszentrum ist für Weihnachten geschmückt.</t>
         </is>
       </c>
-      <c r="M376" t="inlineStr">
-        <is>
-          <t>Ein für Weihnachten dekoriertes Einkaufszentrum hätte keine Skelette als Teil der Dekoration.</t>
-        </is>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -17414,11 +15534,6 @@
           <t>Eine Frau steht vor einem Backsteingebäude, trägt einen Minirock und eine Jeansjacke.</t>
         </is>
       </c>
-      <c r="M377" t="inlineStr">
-        <is>
-          <t>Eine Frau steht vor einem Backsteingebäude und trägt einen Minirock sowie eine Jeansjacke ist eine Umschreibung von Eine Frau, die einen kurzen Rock und eine Jeansjacke trägt, steht vor einem Backsteingebäude.</t>
-        </is>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -17459,11 +15574,6 @@
           <t>Zwei Kinder sitzen an ihren Schreibtischen und lernen.</t>
         </is>
       </c>
-      <c r="M378" t="inlineStr">
-        <is>
-          <t>Studieren ist nicht das Einzige, was zwei Kinder tun können, während sie an einem Schreibtisch sitzen.</t>
-        </is>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -17504,11 +15614,6 @@
           <t>Eine Frau steht.</t>
         </is>
       </c>
-      <c r="M379" t="inlineStr">
-        <is>
-          <t>Stehen bedeutet stehen, unabhängig davon, woran man sich befindet.</t>
-        </is>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -17549,11 +15654,6 @@
           <t>Ein Mann liegt.</t>
         </is>
       </c>
-      <c r="M380" t="inlineStr">
-        <is>
-          <t>Ein Mann liegt auf dem Boden.</t>
-        </is>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -17594,11 +15694,6 @@
           <t>Ein Hund läuft einen Berg hinunter.</t>
         </is>
       </c>
-      <c r="M381" t="inlineStr">
-        <is>
-          <t>Ein Hund kann nicht gleichzeitig am Strand entlanggehen und einen Berg hinuntersteigen.</t>
-        </is>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -17639,11 +15734,6 @@
           <t>Eine Gruppe von Menschen befindet sich in der Stadt.</t>
         </is>
       </c>
-      <c r="M382" t="inlineStr">
-        <is>
-          <t>Zwei Männer mit Dreadlocks, eine Frau mit Kamera und ein Mann mit langem Mantel sind in der Stadt.</t>
-        </is>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -17684,11 +15774,6 @@
           <t>Ein Mann befindet sich in einem Boot.</t>
         </is>
       </c>
-      <c r="M383" t="inlineStr">
-        <is>
-          <t>Damit ein Mann in einem kleinen Boot ist, muss der Mann in einem Boot sein.</t>
-        </is>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -17729,11 +15814,6 @@
           <t>Die Menschen genießen das Buch.</t>
         </is>
       </c>
-      <c r="M384" t="inlineStr">
-        <is>
-          <t>Eine religiöse Versammlung, die ein Buch liest, bedeutet nicht zwangsläufig, dass sie das Buch genießen.</t>
-        </is>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -17774,11 +15854,6 @@
           <t>Es gibt einen Athleten inmitten der Vorbereitung.</t>
         </is>
       </c>
-      <c r="M385" t="inlineStr">
-        <is>
-          <t>Fußballspieler ist ein Athlet.</t>
-        </is>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -17819,11 +15894,6 @@
           <t>Der Mann ist draußen.</t>
         </is>
       </c>
-      <c r="M386" t="inlineStr">
-        <is>
-          <t>Ein Mann mit zwei Hunden auf einem Grasfeld ist ebenfalls ein Mann im Freien.</t>
-        </is>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -17864,11 +15934,6 @@
           <t>Ein Geschäftsmann ist zu spät zu einem Treffen, daher zieht er sein Gepäck so schnell wie möglich hinter sich her.</t>
         </is>
       </c>
-      <c r="M387" t="inlineStr">
-        <is>
-          <t>Sie können nicht folgern, dass er ein Geschäftsmann ist.</t>
-        </is>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -17909,11 +15974,6 @@
           <t>Ein Mann befindet sich in einem Gebäude.</t>
         </is>
       </c>
-      <c r="M388" t="inlineStr">
-        <is>
-          <t>Du kannst keinen Rasenmäher im Hinterhof eines Hauses schieben, während du dich in einem Gebäude befindest. „Einen“ Rasenmäher zu schieben ist der korrekte Ausdruck, nicht „im“ Rasenmäher zu schieben.</t>
-        </is>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -17954,11 +16014,6 @@
           <t>Ein Mann spielt mit einem Hund.</t>
         </is>
       </c>
-      <c r="M389" t="inlineStr">
-        <is>
-          <t>ER SPIELT SEILZIEHEN.</t>
-        </is>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -17999,11 +16054,6 @@
           <t>Der Hund hat viel Fell.</t>
         </is>
       </c>
-      <c r="M390" t="inlineStr">
-        <is>
-          <t>Ein flauschiger Hund ist ein Hund, der viel Fell hat.</t>
-        </is>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -18044,11 +16094,6 @@
           <t>Menschen lächeln.</t>
         </is>
       </c>
-      <c r="M391" t="inlineStr">
-        <is>
-          <t>In Satz 1 wird nur eine Person erwähnt, eine junge Frau, und es gibt keine Angaben zu ihrem Gemütszustand oder ob sie lächelt.</t>
-        </is>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -18089,11 +16134,6 @@
           <t>Eine Frau sitzt in ihrem Auto im Verkehr.</t>
         </is>
       </c>
-      <c r="M392" t="inlineStr">
-        <is>
-          <t>Eine Frau würde nicht gleichzeitig auf einem Parkplatz sein und im Auto im Verkehr sitzen.</t>
-        </is>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -18134,11 +16174,6 @@
           <t>Zwei Personen reiten das Pferd.</t>
         </is>
       </c>
-      <c r="M393" t="inlineStr">
-        <is>
-          <t>Zwei Personen reiten nicht auf dem Pferd, eine ist auf einem Fahrrad und eine reitet darauf.</t>
-        </is>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -18179,11 +16214,6 @@
           <t>Der Mann ist oberkörperfrei, weil er sein Hemd bei einem Pokerspiel in der vergangenen Nacht verloren hat.</t>
         </is>
       </c>
-      <c r="M394" t="inlineStr">
-        <is>
-          <t>Ein oberkörperfreier Mann klettert an einer senkrechten Felswand, bedeutet nicht, dass er seine Hemd bei einem Pokerspiel in der Nacht zuvor verloren hat.</t>
-        </is>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -18224,11 +16254,6 @@
           <t>Ein großer Mensch mit einem Hut.</t>
         </is>
       </c>
-      <c r="M395" t="inlineStr">
-        <is>
-          <t>Eine Person mit einem Schutzhelm, die an den Bahngleisen arbeitet, bedeutet nicht, dass es sich bei der Person um einen großen Menschen handelt.</t>
-        </is>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -18269,11 +16294,6 @@
           <t>Eine Person spielt Fußball.</t>
         </is>
       </c>
-      <c r="M396" t="inlineStr">
-        <is>
-          <t>Torwart fast dasselbe wie Person</t>
-        </is>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -18314,11 +16334,6 @@
           <t>Einige Menschen spielen auf dem Spielplatz.</t>
         </is>
       </c>
-      <c r="M397" t="inlineStr">
-        <is>
-          <t>Die Personen sind entweder auf der Bühne und treten auf oder draußen beim Spielen, aber nicht beides.</t>
-        </is>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -18359,11 +16374,6 @@
           <t>Die Mitglieder waren männlich.</t>
         </is>
       </c>
-      <c r="M398" t="inlineStr">
-        <is>
-          <t>Teammitglieder können nicht gleichzeitig männlich und weiblich sein.</t>
-        </is>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -18404,11 +16414,6 @@
           <t>Der Baum ist ein Farn.</t>
         </is>
       </c>
-      <c r="M399" t="inlineStr">
-        <is>
-          <t>Nicht alle Bäume sind Farne.</t>
-        </is>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -18449,11 +16454,6 @@
           <t>ein Mann posiert bei einem Bodybuilding-Wettbewerb</t>
         </is>
       </c>
-      <c r="M400" t="inlineStr">
-        <is>
-          <t>Nur weil ein Mann, der ein Rennplakat trägt, oberkörperfrei wie ein Bodybuilder posiert, bedeutet das nicht, dass er bei einem Bodybuilding-Wettbewerb posiert.</t>
-        </is>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -18494,11 +16494,6 @@
           <t>Verkäufer warten auf Kunden</t>
         </is>
       </c>
-      <c r="M401" t="inlineStr">
-        <is>
-          <t>Wir können nicht schließen, dass alle Personen Verkäufer sind; sie könnten unterschiedliche Berufe haben. Ebenso können wir nicht folgern, dass die Personen dort warten, um Kunden zu empfangen; sie könnten auf etwas anderes warten oder aus einem anderen Grund dort stehen.</t>
-        </is>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -18539,11 +16534,6 @@
           <t>Ein Mann in einem Mantel repariert etwas am Bahnhof.</t>
         </is>
       </c>
-      <c r="M402" t="inlineStr">
-        <is>
-          <t>„Ein Mann repariert“ ist eine Umschreibung von „Ein Mann führt Reparaturen durch“.</t>
-        </is>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -18584,11 +16574,6 @@
           <t>Eine Parade findet in der Nähe der Bucht statt.</t>
         </is>
       </c>
-      <c r="M403" t="inlineStr">
-        <is>
-          <t>„Near the bay“ ist eine andere Art zu sagen „by the bay“.</t>
-        </is>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -18629,11 +16614,6 @@
           <t>Eine Gruppe von Menschen geht zwischen einigen Autos hindurch.</t>
         </is>
       </c>
-      <c r="M404" t="inlineStr">
-        <is>
-          <t>Drei Personen bildeten eine Gruppe.</t>
-        </is>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -18674,11 +16654,6 @@
           <t>Die Mädchen sind im Urlaub mit ihren Familien und besuchen das UN-Gebäude in New York City.</t>
         </is>
       </c>
-      <c r="M405" t="inlineStr">
-        <is>
-          <t>Es gibt keinerlei Hinweise darauf, warum die Mädchen sich in der Nähe der Flaggen aufgereiht haben oder ob sie mit ihren Familien im Urlaub sind, beziehungsweise ob sie planen, das UN-Gebäude in New York City zu besichtigen.</t>
-        </is>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -18719,11 +16694,6 @@
           <t>Männer tragen Schläuche neben einem blau-weißen Fahrzeug.</t>
         </is>
       </c>
-      <c r="M406" t="inlineStr">
-        <is>
-          <t>Wenn die Männer mit Schläuchen arbeiten, dann müssen sie Schläuche tragen.</t>
-        </is>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -18764,11 +16734,6 @@
           <t>Zwei Frauen posieren für ein Fotoshooting.</t>
         </is>
       </c>
-      <c r="M407" t="inlineStr">
-        <is>
-          <t>Bedeutet nicht, dass die beiden Frauen für ein Fotoshooting posieren. Es ist möglich, dass sie einfach nur auf eine Veranstaltung warten.</t>
-        </is>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -18809,11 +16774,6 @@
           <t>Der Junge war zu Hause und nahm ein Bad.</t>
         </is>
       </c>
-      <c r="M408" t="inlineStr">
-        <is>
-          <t>Man kann zu Hause ein Bad nehmen oder auf einem Pferd durch das Feld reiten, aber nicht beides gleichzeitig.</t>
-        </is>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -18854,11 +16814,6 @@
           <t>Eine Gruppe von Kindern macht Klassenraumaktivitäten.</t>
         </is>
       </c>
-      <c r="M409" t="inlineStr">
-        <is>
-          <t>Eine Gruppe von Kindern nimmt an Unterrichtsaktivitäten teil.</t>
-        </is>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -18899,11 +16854,6 @@
           <t>Die Personen befinden sich in einem Fitnessstudio.</t>
         </is>
       </c>
-      <c r="M410" t="inlineStr">
-        <is>
-          <t>Menschen in einem Fitnessstudio sind nicht im Freien.</t>
-        </is>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -18944,11 +16894,6 @@
           <t>Ein Paar verbringt gemeinsam Zeit.</t>
         </is>
       </c>
-      <c r="M411" t="inlineStr">
-        <is>
-          <t>umarmen bedeutet fast dasselbe wie zusammen.</t>
-        </is>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -18989,11 +16934,6 @@
           <t>Eine Frau überquert eine Straße.</t>
         </is>
       </c>
-      <c r="M412" t="inlineStr">
-        <is>
-          <t>Eine Frau, die die Straße überquert, deutet darauf hin, dass eine Frau eine Straße überquert.</t>
-        </is>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -19034,11 +16974,6 @@
           <t>Der Mann spielt ein Spiel.</t>
         </is>
       </c>
-      <c r="M413" t="inlineStr">
-        <is>
-          <t>Ein Spiel zu spielen ist dasselbe wie Billard zu spielen.</t>
-        </is>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -19079,11 +17014,6 @@
           <t>Die Männer stehen in einer Schlange im Restaurant.</t>
         </is>
       </c>
-      <c r="M414" t="inlineStr">
-        <is>
-          <t>Eine Gruppe von Männern ist eine Umformulierung von „die Männer“.</t>
-        </is>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -19124,11 +17054,6 @@
           <t>Eine Frau, die sich den Super Bowl ansieht.</t>
         </is>
       </c>
-      <c r="M415" t="inlineStr">
-        <is>
-          <t>Du kannst nicht auf einem Holzboot sitzen und den Super Bowl schauen.</t>
-        </is>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -19169,11 +17094,6 @@
           <t>Ein Quintett von Männern scheint gerade mit der Arbeit zu beginnen.</t>
         </is>
       </c>
-      <c r="M416" t="inlineStr">
-        <is>
-          <t>Fünf Männer sind ein Quintett von Männern und stehen kurz davor, mit der Arbeit zu beginnen.</t>
-        </is>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -19214,11 +17134,6 @@
           <t>Der Mann ist im Zoo.</t>
         </is>
       </c>
-      <c r="M417" t="inlineStr">
-        <is>
-          <t>Wahrscheinlich arbeitet der Mann in der Schutzkleidung in einer medizinischen Einrichtung und somit nicht in einem Zoo.</t>
-        </is>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -19259,11 +17174,6 @@
           <t>Ein Baby ist nass.</t>
         </is>
       </c>
-      <c r="M418" t="inlineStr">
-        <is>
-          <t>Das neugeborene Baby ist nass und die Frau wäscht es.</t>
-        </is>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -19304,11 +17214,6 @@
           <t>Ein junges Paar drückt seine gegenseitige Liebe aus.</t>
         </is>
       </c>
-      <c r="M419" t="inlineStr">
-        <is>
-          <t>Sie können nicht daraus schließen, dass sie jung sind.</t>
-        </is>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -19349,11 +17254,6 @@
           <t>Schwimmer und Surfer kommen zusammen.</t>
         </is>
       </c>
-      <c r="M420" t="inlineStr">
-        <is>
-          <t>Es gibt Schwimmer an einer Welle, die sehr nah und zusammen auf derselben Welle wie ein oder mehrere Surfer sind.</t>
-        </is>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -19394,11 +17294,6 @@
           <t>Ein Mann lässt sich hinter einem anderen Mann fotografieren, der gerade sein Essen kocht.</t>
         </is>
       </c>
-      <c r="M421" t="inlineStr">
-        <is>
-          <t>Nur weil ein Mann hinter einem anderen Mann posiert, der gerade sein Essen kocht, bedeutet das nicht, dass von ihm ein Foto gemacht wird.</t>
-        </is>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -19439,11 +17334,6 @@
           <t>Die Männer sind betrunken.</t>
         </is>
       </c>
-      <c r="M422" t="inlineStr">
-        <is>
-          <t>Wir haben keine Ahnung, ob die Männer betrunken sind oder nicht; sie könnten aus vielen Gründen guter Stimmung sein.</t>
-        </is>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -19484,11 +17374,6 @@
           <t>Ein Mann geht mit seinem Hund zum Hundeplatz.</t>
         </is>
       </c>
-      <c r="M423" t="inlineStr">
-        <is>
-          <t>Ein Mann führt nicht zwangsläufig seinen Hund in den Hundepark, nur weil er mit einem Hund spazieren geht. Der Hund, den der Mann ausführt, muss nicht einmal sein eigener Hund sein.</t>
-        </is>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -19529,11 +17414,6 @@
           <t>Ein Mann sitzt auf einem Barhocker und bestellt ein Getränk.</t>
         </is>
       </c>
-      <c r="M424" t="inlineStr">
-        <is>
-          <t>entweder spielen oder sitzen. entweder schießen oder bestellen.</t>
-        </is>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -19574,11 +17454,6 @@
           <t>Ein Chor und ihr Dirigent tanzen auf der Bühne.</t>
         </is>
       </c>
-      <c r="M425" t="inlineStr">
-        <is>
-          <t>Der Chor singt entweder oder tanzt.</t>
-        </is>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -19619,11 +17494,6 @@
           <t>Die Gruppe von Schülern lernt für den Schulunterricht.</t>
         </is>
       </c>
-      <c r="M426" t="inlineStr">
-        <is>
-          <t>Menschen können nicht gleichzeitig auf einem Open-Air-Festival sein und lernen.</t>
-        </is>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -19664,11 +17534,6 @@
           <t>Ein riesiger Bulldozer sprengt.</t>
         </is>
       </c>
-      <c r="M427" t="inlineStr">
-        <is>
-          <t>Ein Bulldozer kann weder klein noch riesig sein, noch kann er explodieren, während Männer davor stehen. Sie würden nicht da stehen bleiben.</t>
-        </is>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -19709,11 +17574,6 @@
           <t>Der Mann hält mit seinem Fahrrad in der Wildnis an.</t>
         </is>
       </c>
-      <c r="M428" t="inlineStr">
-        <is>
-          <t>Wälder sind in der Wildnis zu finden.</t>
-        </is>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -19754,11 +17614,6 @@
           <t>Ein einzelner Mann steht vor einem Gebäude und hält Zuckerwatte in der Hand.</t>
         </is>
       </c>
-      <c r="M429" t="inlineStr">
-        <is>
-          <t>Ein einzelner Mann ist keine Menschenmenge.</t>
-        </is>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -19799,11 +17654,6 @@
           <t>Die Frau ist von den wirren Reden des alten Mannes verwirrt.</t>
         </is>
       </c>
-      <c r="M430" t="inlineStr">
-        <is>
-          <t>Nur weil jemand verwirrt aussieht, bedeutet das nicht, dass sie tatsächlich verwirrt ist.</t>
-        </is>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -19844,11 +17694,6 @@
           <t>Ein Mann spielt im Tal.</t>
         </is>
       </c>
-      <c r="M431" t="inlineStr">
-        <is>
-          <t>EIN TAL IST KEIN BERG</t>
-        </is>
-      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -19889,11 +17734,6 @@
           <t>Der Feuerwehrmann schläft.</t>
         </is>
       </c>
-      <c r="M432" t="inlineStr">
-        <is>
-          <t>Ein Feuerwehrmann kann nicht gleichzeitig schlafen und stehen.</t>
-        </is>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -19934,11 +17774,6 @@
           <t>Ein Mann und seine Kinder gehen angeln.</t>
         </is>
       </c>
-      <c r="M433" t="inlineStr">
-        <is>
-          <t>Die Kinder oder Jungen müssen nicht die Männer sein. Am Ufer eines Sees zu sein bedeutet nicht zwangsläufig, dass geangelt wird.</t>
-        </is>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -19979,11 +17814,6 @@
           <t>Eine Frau steht am Zebrastreifen.</t>
         </is>
       </c>
-      <c r="M434" t="inlineStr">
-        <is>
-          <t>Ein Mann ist keine Frau.</t>
-        </is>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -20024,11 +17854,6 @@
           <t>Jemand ist drinnen und sieht fern.</t>
         </is>
       </c>
-      <c r="M435" t="inlineStr">
-        <is>
-          <t>Straßen befinden sich normalerweise außerhalb von Orten, an denen jemand fernsehen würde. Man könnte nicht gleichzeitig auf der Straße und drinnen beim Fernsehen sein.</t>
-        </is>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -20069,11 +17894,6 @@
           <t>Ein junges Mädchen läuft und fährt Einrad.</t>
         </is>
       </c>
-      <c r="M436" t="inlineStr">
-        <is>
-          <t>Das Mädchen kann nicht laufen, während es Einrad fährt.</t>
-        </is>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -20114,11 +17934,6 @@
           <t>Ein Mann sitzt auf der Toilette in einem Badezimmer.</t>
         </is>
       </c>
-      <c r="M437" t="inlineStr">
-        <is>
-          <t>Ein Mann, der auf Sand geht, kann nicht in einem Badezimmer sitzen.</t>
-        </is>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -20159,11 +17974,6 @@
           <t>Der Mann ist mit leeren Händen.</t>
         </is>
       </c>
-      <c r="M438" t="inlineStr">
-        <is>
-          <t>Nicht alle Männer waren mittleren Alters.</t>
-        </is>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -20204,11 +18014,6 @@
           <t>Der Mann besitzt ein Skateboard.</t>
         </is>
       </c>
-      <c r="M439" t="inlineStr">
-        <is>
-          <t>Ein Mann mit einem Skateboard wäre ein Mann, der ein Skateboard besitzt.</t>
-        </is>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -20249,11 +18054,6 @@
           <t>Eine Gruppe von Menschen macht Fallschirmspringen.</t>
         </is>
       </c>
-      <c r="M440" t="inlineStr">
-        <is>
-          <t>Personen, die Fallschirmspringen, können nicht gleichzeitig ein politisches Schild halten.</t>
-        </is>
-      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -20294,11 +18094,6 @@
           <t>kicker startet</t>
         </is>
       </c>
-      <c r="M441" t="inlineStr">
-        <is>
-          <t>kicker tritt ab, anstatt nur zu treten</t>
-        </is>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -20339,11 +18134,6 @@
           <t>Beide Männer sind homosexuell.</t>
         </is>
       </c>
-      <c r="M442" t="inlineStr">
-        <is>
-          <t>Ein Mann, der einen anderen Mann auf die Wange küsst, bedeutet nicht, dass sie homosexuell sind.</t>
-        </is>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -20384,11 +18174,6 @@
           <t>Die Läufer nehmen an einem Marathon teil.</t>
         </is>
       </c>
-      <c r="M443" t="inlineStr">
-        <is>
-          <t>Die Straße hinunterzurennen bedeutet nicht, dass Läufer an einem Marathon teilnehmen.</t>
-        </is>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -20429,11 +18214,6 @@
           <t>Eine Person verrichtet eine Arbeit, ohne dass sich andere Personen in der Nähe befinden.</t>
         </is>
       </c>
-      <c r="M444" t="inlineStr">
-        <is>
-          <t>Ein Mann ist die Person, die allein ohne andere an einer Aufgabe arbeitet oder einen Job ausführt.</t>
-        </is>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -20474,11 +18254,6 @@
           <t>Menschen in der Mittagspause</t>
         </is>
       </c>
-      <c r="M445" t="inlineStr">
-        <is>
-          <t>Nebeneinandersitzen bedeutet nicht zwangsläufig Mittagspause.</t>
-        </is>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -20519,11 +18294,6 @@
           <t>Wissenschaftler betrachten eine Petrischale</t>
         </is>
       </c>
-      <c r="M446" t="inlineStr">
-        <is>
-          <t>Die Wissenschaftler, die auf die Petrischale schauen, untersuchen die Petrischale.</t>
-        </is>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -20564,11 +18334,6 @@
           <t>Eine Gruppe von Kindern ist glücklich mit dem Fahrzeug, in das sie hineinwachsen werden.</t>
         </is>
       </c>
-      <c r="M447" t="inlineStr">
-        <is>
-          <t>Eine Gruppe ist eine andere Möglichkeit, eine Anzahl von etwas zu beschreiben.</t>
-        </is>
-      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -20609,11 +18374,6 @@
           <t>Zwei Männer draußen am Strand.</t>
         </is>
       </c>
-      <c r="M448" t="inlineStr">
-        <is>
-          <t>Auf einem Strand ist anders als außerhalb des Strandes</t>
-        </is>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -20654,11 +18414,6 @@
           <t>Es gibt Kinder und Erwachsene, die im Badezimmer im Haus gehen.</t>
         </is>
       </c>
-      <c r="M449" t="inlineStr">
-        <is>
-          <t>Nur weil ein Erwachsener und Kinder auf einem Weg gehen, bedeutet das nicht, dass sie sich drinnen befinden.</t>
-        </is>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -20699,11 +18454,6 @@
           <t>Die Laborkittel sind blau.</t>
         </is>
       </c>
-      <c r="M450" t="inlineStr">
-        <is>
-          <t>Man kann nicht daraus schließen, dass sie blau gefärbt sind.</t>
-        </is>
-      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -20744,11 +18494,6 @@
           <t>Das Mädchen hat sich den Knöchel verstaucht und sitzt im Rollstuhl.</t>
         </is>
       </c>
-      <c r="M451" t="inlineStr">
-        <is>
-          <t>Ein Mensch würde mit einer verstauchten Knöchel nicht springen.</t>
-        </is>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -20789,11 +18534,6 @@
           <t>Zwei Personen in einem Ruderboot auf einem felsigen See, eine rudert, die andere sitzt.</t>
         </is>
       </c>
-      <c r="M452" t="inlineStr">
-        <is>
-          <t>Ein mit Steinen umgebener See kann auch als felsiger See bezeichnet werden.</t>
-        </is>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -20834,11 +18574,6 @@
           <t>Niemand wird nass werden.</t>
         </is>
       </c>
-      <c r="M453" t="inlineStr">
-        <is>
-          <t>Wenn eine große Gruppe von Schwimmern ins Wasser geht, werden sie nass.</t>
-        </is>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -20879,11 +18614,6 @@
           <t>Eine Frau in einem grünen Oberteil und roten Hosen beobachtet die dunklen Wolken im Regen.</t>
         </is>
       </c>
-      <c r="M454" t="inlineStr">
-        <is>
-          <t>Nur weil eine Frau im grünen Oberteil die dunklen Wolken beobachtet, bedeutet das nicht, dass es dieselbe Frau ist und dass es regnet.</t>
-        </is>
-      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -20924,11 +18654,6 @@
           <t>Ein Veteran sitzt auf einer Bank in der Nähe einer Haltestelle.</t>
         </is>
       </c>
-      <c r="M455" t="inlineStr">
-        <is>
-          <t>Ich wusste nicht, dass der schwarze Mann ein Veteran ist.</t>
-        </is>
-      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -20969,11 +18694,6 @@
           <t>Ein Mann sitzt am Lenkrad.</t>
         </is>
       </c>
-      <c r="M456" t="inlineStr">
-        <is>
-          <t>Der Mann schaut zurück und lächelt, was impliziert, dass er dabei am Lenkrad sitzt.</t>
-        </is>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -21014,11 +18734,6 @@
           <t>Es gibt einen Schneesturm, daher ist niemand auf der Straße.</t>
         </is>
       </c>
-      <c r="M457" t="inlineStr">
-        <is>
-          <t>Eine junge Dame, zwei Frauen und ein Herr bedeuten, dass sich jemand auf der Straße befindet, daher kann die Aussage, niemand sei auf der Straße, nicht korrekt sein.</t>
-        </is>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -21059,11 +18774,6 @@
           <t>Es steht eine Person in der Nähe des Obst- und Gemüsestands.</t>
         </is>
       </c>
-      <c r="M458" t="inlineStr">
-        <is>
-          <t>Die Person kann nicht in der Nähe des Obstes stehen, wenn sie hinter zwei großen Körben mit Brot sitzt.</t>
-        </is>
-      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -21104,11 +18814,6 @@
           <t>Ein Hund war blau und der andere Hund war schwarz.</t>
         </is>
       </c>
-      <c r="M459" t="inlineStr">
-        <is>
-          <t>Wir hören, dass die Hunde braun und weiß sind, werden dann aber darüber informiert, dass sie tatsächlich blau und schwarz sind.</t>
-        </is>
-      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -21149,11 +18854,6 @@
           <t>Pfadfinder wandern durch einen Nationalwald.</t>
         </is>
       </c>
-      <c r="M460" t="inlineStr">
-        <is>
-          <t>Die Tatsache, dass eine Gruppe von Menschen in einem bewaldeten Gebiet wandert, impliziert nicht, dass sie Pfadfinder sind oder sich in einem Nationalwald befinden.</t>
-        </is>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -21194,11 +18894,6 @@
           <t>Regal-Dinosaurier- und weiße Kutschen-Szene mit weiblicher Fahrerin</t>
         </is>
       </c>
-      <c r="M461" t="inlineStr">
-        <is>
-          <t>Das Tier muss entweder ein Pferd oder ein Dinosaurier sein.</t>
-        </is>
-      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -21239,11 +18934,6 @@
           <t>Ein Wartungsarbeiter bereitet sich darauf vor, einige Renovierungsarbeiten durchzuführen.</t>
         </is>
       </c>
-      <c r="M462" t="inlineStr">
-        <is>
-          <t>Ein Mann in schwerer Kleidung muss nicht zwangsläufig ein Wartungsarbeiter sein, und eine Inspektion des Bodens muss nicht bedeuten, dass dieser umgestaltet wird.</t>
-        </is>
-      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -21284,11 +18974,6 @@
           <t>Der Mann trägt ein grünes Hemd und steht in einer Gruppe.</t>
         </is>
       </c>
-      <c r="M463" t="inlineStr">
-        <is>
-          <t>Der Mann kann nicht sitzen, während sich andere versammeln, und dann Teil der Gruppe sein.</t>
-        </is>
-      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -21329,11 +19014,6 @@
           <t>Die Passagiere steigen in den Zug ein.</t>
         </is>
       </c>
-      <c r="M464" t="inlineStr">
-        <is>
-          <t>Die Tatsache, dass Passagiere in einen Zug einsteigen, impliziert nicht, dass DIE Passagiere in den Zug einsteigen.</t>
-        </is>
-      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -21374,11 +19054,6 @@
           <t>Einige Leute gehen nebeneinander eine Straße entlang.</t>
         </is>
       </c>
-      <c r="M465" t="inlineStr">
-        <is>
-          <t>Wir wissen nicht, ob sie auf der Straße sind. Sie könnten überall sein.</t>
-        </is>
-      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -21419,11 +19094,6 @@
           <t>Eine weibliche Arbeiterin tanzt an einer Stange für Striptease.</t>
         </is>
       </c>
-      <c r="M466" t="inlineStr">
-        <is>
-          <t>Sie könnte nicht tanzen, während sie einen Entwässerungsgraben säubert.</t>
-        </is>
-      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -21464,11 +19134,6 @@
           <t>Ein Mann zerschlägt seine Gitarre.</t>
         </is>
       </c>
-      <c r="M467" t="inlineStr">
-        <is>
-          <t>Spielen ist nicht dasselbe wie Zerstören.</t>
-        </is>
-      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -21509,11 +19174,6 @@
           <t>Im Theater sitzen Menschen auf den Plätzen.</t>
         </is>
       </c>
-      <c r="M468" t="inlineStr">
-        <is>
-          <t>Nicht alle Sitze in Reihen befinden sich in einem Theater.</t>
-        </is>
-      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -21554,11 +19214,6 @@
           <t>Ein Mann verkauft Elektronik an Kunden.</t>
         </is>
       </c>
-      <c r="M469" t="inlineStr">
-        <is>
-          <t>Nicht alle Produkte sind Elektronik.</t>
-        </is>
-      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -21599,11 +19254,6 @@
           <t>Ein Mann geht in der Nähe einer Mauer entlang.</t>
         </is>
       </c>
-      <c r="M470" t="inlineStr">
-        <is>
-          <t>Ein Wandbild ist an einer Wand aufgehängt.</t>
-        </is>
-      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -21644,11 +19294,6 @@
           <t>Die Gruppe von Frauen fährt Fahrrad.</t>
         </is>
       </c>
-      <c r="M471" t="inlineStr">
-        <is>
-          <t>Die Frauen können nicht gleichzeitig auf einer Couch sitzen und Bier trinken sowie Fahrrad fahren.</t>
-        </is>
-      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -21689,11 +19334,6 @@
           <t>Zwei Polizisten aßen Donuts in einem Donutladen.</t>
         </is>
       </c>
-      <c r="M472" t="inlineStr">
-        <is>
-          <t>Die Polizisten, die die Straßenaktivitäten beobachten, essen keine Donuts in einem Donutladen.</t>
-        </is>
-      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -21734,11 +19374,6 @@
           <t>Eine Frau trägt Make-up auf.</t>
         </is>
       </c>
-      <c r="M473" t="inlineStr">
-        <is>
-          <t>Eine Frau, die in einen Spiegel schaut, während sie sich schminkt.</t>
-        </is>
-      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -21779,11 +19414,6 @@
           <t>Eine Frau sitzt und näht für ihre Enkelkinder.</t>
         </is>
       </c>
-      <c r="M474" t="inlineStr">
-        <is>
-          <t>Die Frau könnte für jeden nähen, nicht nur für ihre Enkelkinder.</t>
-        </is>
-      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -21824,11 +19454,6 @@
           <t>Die Frau wird gleich ganz nass werden.</t>
         </is>
       </c>
-      <c r="M475" t="inlineStr">
-        <is>
-          <t>Ins Wasser getaucht zu werden würde dazu führen, dass eine Person sehr nass wird.</t>
-        </is>
-      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -21869,11 +19494,6 @@
           <t>Der Surfer ist im Wasser.</t>
         </is>
       </c>
-      <c r="M476" t="inlineStr">
-        <is>
-          <t>Der Surfer vollführt eine Drehung auf der Welle, da er im Wasser ist.</t>
-        </is>
-      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -21914,11 +19534,6 @@
           <t>Ein kleiner Junge spielt Basketball in einer Hallensporthalle.</t>
         </is>
       </c>
-      <c r="M477" t="inlineStr">
-        <is>
-          <t>Die Tatsache, dass der Junge einen Basketball auf den Korb richtet, impliziert nicht, dass er in einer Turnhalle spielt.</t>
-        </is>
-      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -21959,11 +19574,6 @@
           <t>Eine Frau in Weiß schläft in ihrem Bett.</t>
         </is>
       </c>
-      <c r="M478" t="inlineStr">
-        <is>
-          <t>Gehen und Schlafen sind unterschiedliche Handlungen.</t>
-        </is>
-      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -22004,11 +19614,6 @@
           <t>Eine Frau mit Gesichtsbehaarung isst Steak.</t>
         </is>
       </c>
-      <c r="M479" t="inlineStr">
-        <is>
-          <t>Eine Frau und ein Mann haben unterschiedliche Geschlechter.</t>
-        </is>
-      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -22049,11 +19654,6 @@
           <t>Die Mutter des Kindes beobachtet sie aufmerksam.</t>
         </is>
       </c>
-      <c r="M480" t="inlineStr">
-        <is>
-          <t>Ein Baby kann im Dreck spielen, auch wenn die Mutter des Kindes nicht hinschaut.</t>
-        </is>
-      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -22094,11 +19694,6 @@
           <t>der Hund frisst Hundefutter.</t>
         </is>
       </c>
-      <c r="M481" t="inlineStr">
-        <is>
-          <t>Der Hund kann nicht gleichzeitig Hundefutter fressen und über eine Hürde springen.</t>
-        </is>
-      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -22139,11 +19734,6 @@
           <t>Die Wand ist leer.</t>
         </is>
       </c>
-      <c r="M482" t="inlineStr">
-        <is>
-          <t>Wenn die Wand voller Weißheit ist, ist sie leer.</t>
-        </is>
-      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -22184,11 +19774,6 @@
           <t>Der Mann schläft.</t>
         </is>
       </c>
-      <c r="M483" t="inlineStr">
-        <is>
-          <t>Der Mann schläft ist eine Umschreibung von Ein Mann sitzt auf der Bank und schläft.</t>
-        </is>
-      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -22229,11 +19814,6 @@
           <t>Ein Junge fährt an einer Zipline.</t>
         </is>
       </c>
-      <c r="M484" t="inlineStr">
-        <is>
-          <t>Ein Mann genießt eine Seilrutschen-Aktivität.</t>
-        </is>
-      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -22274,11 +19854,6 @@
           <t>Ein Mann trägt vollständig weiße Kleidung.</t>
         </is>
       </c>
-      <c r="M485" t="inlineStr">
-        <is>
-          <t>Schwarz steht im Widerspruch zu Weiß.</t>
-        </is>
-      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -22319,11 +19894,6 @@
           <t>Ein Mann spielt ein Spiel Bowling mit Sprühdosen, nachdem er die Dosen benutzt hat, um die Wand zu bemalen.</t>
         </is>
       </c>
-      <c r="M486" t="inlineStr">
-        <is>
-          <t>Nur weil er Spraydosen hat, bedeutet das nicht, dass er diese benutzt hat, um die Wand zu streichen.</t>
-        </is>
-      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -22364,11 +19934,6 @@
           <t>Ein Mann trägt einen Anzug und eine Krawatte.</t>
         </is>
       </c>
-      <c r="M487" t="inlineStr">
-        <is>
-          <t>Man kann nicht gleichzeitig oberkörperfrei sein und einen Anzug tragen.</t>
-        </is>
-      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -22409,11 +19974,6 @@
           <t>Eine Frau trägt ein rosa Hemd und sitzt auf einem gelben Sofa.</t>
         </is>
       </c>
-      <c r="M488" t="inlineStr">
-        <is>
-          <t>Blau und Pink sind verschiedene Farben.</t>
-        </is>
-      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -22454,11 +20014,6 @@
           <t>Ein Mann befindet sich in einer Fabrik.</t>
         </is>
       </c>
-      <c r="M489" t="inlineStr">
-        <is>
-          <t>Eine Industriesähmaschine bedeutet nicht zwangsläufig, dass sie sich in einer Fabrik befindet.</t>
-        </is>
-      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -22499,11 +20054,6 @@
           <t>Eine Gruppe von Männern genießt das Wetter.</t>
         </is>
       </c>
-      <c r="M490" t="inlineStr">
-        <is>
-          <t>Alle Männer in einem gelben Boot mit ihren Hunden genießen nicht immer das Wetter.</t>
-        </is>
-      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -22544,11 +20094,6 @@
           <t>Ein kleines Mädchen spricht mit einem Mann.</t>
         </is>
       </c>
-      <c r="M491" t="inlineStr">
-        <is>
-          <t>Sie führt entweder eine Handlung mit dem Mann oder mit der Frau aus.</t>
-        </is>
-      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -22589,11 +20134,6 @@
           <t>Der Fußballspieler spielt Fußball.</t>
         </is>
       </c>
-      <c r="M492" t="inlineStr">
-        <is>
-          <t>Ein Fußballspieler, der sich auf eine Eckballausführung vorbereitet, spielt definitiv Fußball.</t>
-        </is>
-      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -22634,11 +20174,6 @@
           <t>Hinter dem kräftigen Mann befindet sich ein weißes Baugerät.</t>
         </is>
       </c>
-      <c r="M493" t="inlineStr">
-        <is>
-          <t>Zu sagen, dass die weiße Baumaschine sich im Hintergrund eines korpulenten Mannes befindet, ist dasselbe wie zu sagen, dass sich hinter dem korpulenten Mann ein Stück weiße Baumaschine befindet.</t>
-        </is>
-      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -22679,11 +20214,6 @@
           <t>Der Hund saß auf der Fensterbank und beobachtete den Sturm.</t>
         </is>
       </c>
-      <c r="M494" t="inlineStr">
-        <is>
-          <t>Der Hund kann nicht gleichzeitig rennen und gesessen haben.</t>
-        </is>
-      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -22724,11 +20254,6 @@
           <t>Ein Mann trägt einen roten Hut.</t>
         </is>
       </c>
-      <c r="M495" t="inlineStr">
-        <is>
-          <t>Der eine trägt einen schwarzen Hut, während der andere einen roten Hut aufhat.</t>
-        </is>
-      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -22769,11 +20294,6 @@
           <t>Zwei Mädchen putzen nach ihrer Arbeitsschicht.</t>
         </is>
       </c>
-      <c r="M496" t="inlineStr">
-        <is>
-          <t>Wenn zwei Mädchen einen Boden reinigen, bedeutet das nicht zwangsläufig, dass eines der Mädchen einen Job hat, noch bedeutet es, dass die beiden Mädchen nach ihrer Arbeitsschicht reinigen.</t>
-        </is>
-      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -22814,11 +20334,6 @@
           <t>Eine strahlend rote Sonne geht über einem verlassenen Strand unter.</t>
         </is>
       </c>
-      <c r="M497" t="inlineStr">
-        <is>
-          <t>Einer handelt von einer Gruppe von Kindern und der andere von der roten Sonne. Sie passen nicht zusammen.</t>
-        </is>
-      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -22859,11 +20374,6 @@
           <t>Große Männer beim Schlittschuhlaufen.</t>
         </is>
       </c>
-      <c r="M498" t="inlineStr">
-        <is>
-          <t>Nicht alle großen Männer fahren Rollschuh.</t>
-        </is>
-      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -22904,11 +20414,6 @@
           <t>Die Gruppe junger Erwachsener marschiert auf der Straße.</t>
         </is>
       </c>
-      <c r="M499" t="inlineStr">
-        <is>
-          <t>Schaufensterbummeln und auf der Straße marschieren sind verschiedene Aktivitäten für eine Gruppe junger Leute.</t>
-        </is>
-      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -22949,11 +20454,6 @@
           <t>Der Mann ist im Wald.</t>
         </is>
       </c>
-      <c r="M500" t="inlineStr">
-        <is>
-          <t>Wenn der Mann auf einem belebten Bürgersteig steht, bedeutet das, dass er sich in der Nähe einer Straße befindet, also kann er nicht im Wald sein.</t>
-        </is>
-      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -22994,11 +20494,6 @@
           <t>Ein Tier tanzt.</t>
         </is>
       </c>
-      <c r="M501" t="inlineStr">
-        <is>
-          <t>Der Hund kann nicht gleichzeitig tanzen und ziehen.</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
